--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8287" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A73D7CF7-BB83-4BD6-AF1D-F0D4C6E97E99}"/>
+  <xr:revisionPtr revIDLastSave="8300" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{864BF168-1ACD-42F5-9372-B5FD697954C8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="503">
   <si>
     <t>ROUND</t>
   </si>
@@ -1545,6 +1545,15 @@
   </si>
   <si>
     <t>6-3 6-5 RETIRED</t>
+  </si>
+  <si>
+    <t>CANADIAN OPEN</t>
+  </si>
+  <si>
+    <t>Mayar Sherif (EGYPT)</t>
+  </si>
+  <si>
+    <t>Caroline Wozniacki (DENMARK)</t>
   </si>
 </sst>
 </file>
@@ -2121,7 +2130,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2229,7 +2238,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2746,7 +2755,7 @@
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67741935483870963</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4161,7 +4170,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8AFC91AF-62F5-4A59-AE07-5295474B5EFF}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4620,10 +4629,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E45" activeCellId="9" sqref="E4 E8 E13 E15 E20 E25 E33 E38 E41 E45"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E57" activeCellId="10" sqref="E4 E8 E13 E15 E20 E25 E33 E38 E41 E45 E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5226,7 +5235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -5240,7 +5249,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -5254,7 +5263,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -5268,7 +5277,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -5282,7 +5291,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -5294,6 +5303,54 @@
       </c>
       <c r="F53" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>500</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" t="s">
+        <v>501</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>502</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>404</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5310,7 +5367,7 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -5538,20 +5595,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>0.67741935483870963</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5560,7 +5617,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5568,15 +5625,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <f>(D12-E12)/D12</f>
-        <v>0.56000000000000005</v>
+        <v>0.55947136563876654</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5585,7 +5642,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5593,15 +5650,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.55999999999999994</v>
+        <v>0.55947136563876654</v>
       </c>
     </row>
   </sheetData>
@@ -8879,8 +8936,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9238,7 +9295,7 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8300" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{864BF168-1ACD-42F5-9372-B5FD697954C8}"/>
+  <xr:revisionPtr revIDLastSave="8317" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{733E2C4A-88EB-435C-8091-5E010A034D69}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="505">
   <si>
     <t>ROUND</t>
   </si>
@@ -1554,6 +1554,12 @@
   </si>
   <si>
     <t>Caroline Wozniacki (DENMARK)</t>
+  </si>
+  <si>
+    <t>Sloane Stephens (USA)</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-1</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2136,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2238,7 +2244,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4629,10 +4635,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E57" activeCellId="10" sqref="E4 E8 E13 E15 E20 E25 E33 E38 E41 E45 E57"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E59" activeCellId="12" sqref="E2:E3 E6:E7 E10:E12 E17:E19 E22:E24 E27:E28 E30:E32 E35:E37 E40 E43:E44 E47:E53 E55:E56 E59:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5351,6 +5357,68 @@
       </c>
       <c r="F57" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>318</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>503</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>350</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -5595,16 +5663,16 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
@@ -5617,7 +5685,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5625,15 +5693,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" s="3">
         <f>(D12-E12)/D12</f>
-        <v>0.55947136563876654</v>
+        <v>0.56086956521739129</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5642,7 +5710,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5650,15 +5718,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.55947136563876654</v>
+        <v>0.56086956521739129</v>
       </c>
     </row>
   </sheetData>
@@ -8936,8 +9004,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8317" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{733E2C4A-88EB-435C-8091-5E010A034D69}"/>
+  <xr:revisionPtr revIDLastSave="8337" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{157D33E1-BCA8-4F6D-816F-01F561B08110}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="510">
   <si>
     <t>ROUND</t>
   </si>
@@ -1560,6 +1560,21 @@
   </si>
   <si>
     <t>7-6(3) 6-1</t>
+  </si>
+  <si>
+    <t>Na-Lae Han (SOUTH KOREA)</t>
+  </si>
+  <si>
+    <t>6-7(3) 6-3 6-2</t>
+  </si>
+  <si>
+    <t>Martina Trevisan (ITALY)</t>
+  </si>
+  <si>
+    <t>Ekaterina Alexandrova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Madison Keys (USA)</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2151,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2244,7 +2259,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2761,7 +2776,7 @@
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4635,10 +4650,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E59" activeCellId="12" sqref="E2:E3 E6:E7 E10:E12 E17:E19 E22:E24 E27:E28 E30:E32 E35:E37 E40 E43:E44 E47:E53 E55:E56 E59:E61"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E64" activeCellId="13" sqref="E2:E3 E6:E7 E10:E12 E17:E19 E22:E24 E27:E28 E30:E32 E35:E37 E40 E43:E44 E47:E53 E55:E56 E59:E61 E64:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5419,6 +5434,82 @@
       </c>
       <c r="F62" t="s">
         <v>504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" t="s">
+        <v>505</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" t="s">
+        <v>507</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" t="s">
+        <v>508</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>469</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>509</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5663,20 +5754,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5685,7 +5776,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5693,15 +5784,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F12" s="3">
         <f>(D12-E12)/D12</f>
-        <v>0.56086956521739129</v>
+        <v>0.5641025641025641</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5710,7 +5801,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5718,15 +5809,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>23</v>
+        <v>23.4</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>10.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.56086956521739129</v>
+        <v>0.5641025641025641</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8337" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{157D33E1-BCA8-4F6D-816F-01F561B08110}"/>
+  <xr:revisionPtr revIDLastSave="8346" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A71CAD7-EF28-40FD-BAAC-5FCF4A6CEF51}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="2021" sheetId="28" r:id="rId8"/>
     <sheet name="2022" sheetId="31" r:id="rId9"/>
     <sheet name="2023" sheetId="34" r:id="rId10"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId11"/>
+    <sheet name="Stats" sheetId="1" r:id="rId11"/>
     <sheet name="Wins-Losses" sheetId="35" r:id="rId12"/>
     <sheet name="Winning Percentile Range" sheetId="38" r:id="rId13"/>
   </sheets>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="512">
   <si>
     <t>ROUND</t>
   </si>
@@ -1575,6 +1575,12 @@
   </si>
   <si>
     <t>Madison Keys (USA)</t>
+  </si>
+  <si>
+    <t>CHINA OPEN</t>
+  </si>
+  <si>
+    <t>1-6 6-4 6-1</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2065,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2080,7 +2086,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>Stats!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2119,7 +2125,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$11</c:f>
+              <c:f>Stats!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2167,7 +2173,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2188,7 +2194,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>Stats!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2227,7 +2233,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$11</c:f>
+              <c:f>Stats!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2259,7 +2265,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2656,7 +2662,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2705,7 +2711,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
+              <c:f>Stats!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2744,7 +2750,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$11</c:f>
+              <c:f>Stats!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2776,7 +2782,7 @@
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67500000000000004</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4650,10 +4656,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E64" activeCellId="13" sqref="E2:E3 E6:E7 E10:E12 E17:E19 E22:E24 E27:E28 E30:E32 E35:E37 E40 E43:E44 E47:E53 E55:E56 E59:E61 E64:E67"/>
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5456,7 +5462,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>75</v>
       </c>
@@ -5470,7 +5476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5484,7 +5490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>14</v>
       </c>
@@ -5498,7 +5504,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>18</v>
       </c>
@@ -5510,6 +5516,26 @@
       </c>
       <c r="F68" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>510</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -5754,7 +5780,7 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5763,11 +5789,11 @@
         <v>40</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>0.67500000000000004</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5776,7 +5802,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5788,11 +5814,11 @@
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F12" s="3">
         <f>(D12-E12)/D12</f>
-        <v>0.5641025641025641</v>
+        <v>0.55982905982905984</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5801,7 +5827,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5813,11 +5839,11 @@
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>10.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.5641025641025641</v>
+        <v>0.55982905982905973</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8346" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A71CAD7-EF28-40FD-BAAC-5FCF4A6CEF51}"/>
+  <xr:revisionPtr revIDLastSave="8347" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21FAA07A-F2DA-436E-AF99-A909A64D3AF9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -4208,7 +4208,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4577,20 +4577,20 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>152</v>
       </c>
@@ -4658,21 +4658,21 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>472</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>75</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>474</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>75</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>396</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>488</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>387</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>27</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>75</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>75</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>75</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>388</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>75</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>500</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>18</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>75</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>14</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>18</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>510</v>
       </c>
@@ -5553,20 +5553,20 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>0.76470588235294112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>0.68965517241379315</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>0.44117647058823528</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>0.55982905982905984</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>145</v>
       </c>
@@ -5869,20 +5869,20 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>170</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>27</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>34</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -6323,20 +6323,20 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>203</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>27</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>166</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -6643,20 +6643,20 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>233</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>21</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>233</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>239</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>18</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>241</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>244</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>27</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>34</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>21</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>129</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>166</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>251</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>18</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>27</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>34</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>37</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>248</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>27</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>34</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>261</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>14</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>18</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>21</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>262</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>14</v>
       </c>
@@ -7669,20 +7669,20 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>75</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>287</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>27</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>280</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>27</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>281</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>282</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>283</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>18</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>27</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -8462,20 +8462,20 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>75</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>18</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>18</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>320</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>305</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>21</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>18</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -9122,20 +9122,20 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>336</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>337</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>287</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>338</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>75</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -9481,20 +9481,20 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>385</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>18</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>75</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>387</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>75</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>388</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>389</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>18</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>21</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>390</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>391</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>392</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>18</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>395</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>14</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>18</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>20</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>396</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>427</v>
       </c>
@@ -10405,20 +10405,20 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>443</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>75</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>446</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>396</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>456</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>457</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>459</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>21</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>396</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>465</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8347" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21FAA07A-F2DA-436E-AF99-A909A64D3AF9}"/>
+  <xr:revisionPtr revIDLastSave="8366" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E7D343B-B6D4-419D-B72A-EAA7357BF1D7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="516">
   <si>
     <t>ROUND</t>
   </si>
@@ -1581,6 +1581,18 @@
   </si>
   <si>
     <t>1-6 6-4 6-1</t>
+  </si>
+  <si>
+    <t>WTA FINALS</t>
+  </si>
+  <si>
+    <t>Group Stage</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-0</t>
+  </si>
+  <si>
+    <t>5-7 7-6(4) 6-3</t>
   </si>
 </sst>
 </file>
@@ -2265,7 +2277,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2782,7 +2794,7 @@
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65</c:v>
+                  <c:v>0.57499999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4656,10 +4668,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E74" activeCellId="16" sqref="E4 E8 E13 E15 E20 E25 E33 E38 E41 E45 E57 E62 E68 E70 E72 E73 E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5538,6 +5550,54 @@
         <v>511</v>
       </c>
     </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>512</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>513</v>
+      </c>
+      <c r="D72" t="s">
+        <v>350</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>513</v>
+      </c>
+      <c r="D73" t="s">
+        <v>412</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>513</v>
+      </c>
+      <c r="D74" t="s">
+        <v>404</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" t="s">
+        <v>515</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5553,7 +5613,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5780,7 +5840,7 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5789,11 +5849,11 @@
         <v>40</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5802,7 +5862,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5814,11 +5874,11 @@
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F12" s="3">
         <f>(D12-E12)/D12</f>
-        <v>0.55982905982905984</v>
+        <v>0.54700854700854706</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5827,7 +5887,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5839,11 +5899,11 @@
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.55982905982905973</v>
+        <v>0.54700854700854695</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8366" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E7D343B-B6D4-419D-B72A-EAA7357BF1D7}"/>
+  <xr:revisionPtr revIDLastSave="8376" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0989090C-088E-47D5-8C97-8CDD76FB780D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="518">
   <si>
     <t>ROUND</t>
   </si>
@@ -1593,6 +1593,12 @@
   </si>
   <si>
     <t>5-7 7-6(4) 6-3</t>
+  </si>
+  <si>
+    <t>Sonya Kenin (USA)</t>
+  </si>
+  <si>
+    <t>6-2 2-6 6-3</t>
   </si>
 </sst>
 </file>
@@ -2169,7 +2175,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2277,7 +2283,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2794,7 +2800,7 @@
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57499999999999996</c:v>
+                  <c:v>0.56097560975609762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4668,10 +4674,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E74" activeCellId="16" sqref="E4 E8 E13 E15 E20 E25 E33 E38 E41 E45 E57 E62 E68 E70 E72 E73 E74"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5596,6 +5602,34 @@
       </c>
       <c r="F74" t="s">
         <v>515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>396</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>516</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -5840,20 +5874,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>0.57499999999999996</v>
+        <v>0.56097560975609762</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5862,7 +5896,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5870,15 +5904,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F12" s="3">
         <f>(D12-E12)/D12</f>
-        <v>0.54700854700854706</v>
+        <v>0.5446808510638298</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5887,7 +5921,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5895,15 +5929,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.54700854700854695</v>
+        <v>0.5446808510638298</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8376" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0989090C-088E-47D5-8C97-8CDD76FB780D}"/>
+  <xr:revisionPtr revIDLastSave="8377" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99F48137-D20D-45F5-A9E0-1A9353E2ABE7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -4203,7 +4203,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E6145E28-0547-4579-93EB-B81AD4CEAC43}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4215,7 +4215,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8AFC91AF-62F5-4A59-AE07-5295474B5EFF}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4594,21 +4594,21 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>152</v>
       </c>
@@ -4676,21 +4676,21 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>472</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>75</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>474</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>75</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>396</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>488</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>387</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>27</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>75</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>75</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>75</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>388</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>75</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>500</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>18</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>75</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>14</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>18</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>510</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>512</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>513</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>513</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>396</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>139</v>
       </c>
@@ -5647,20 +5647,20 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>0.76470588235294112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>0.68965517241379315</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>0.44117647058823528</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>0.56097560975609762</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>0.5446808510638298</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>145</v>
       </c>
@@ -5962,21 +5962,21 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>170</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>27</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>34</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -6416,21 +6416,21 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>203</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>27</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>166</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -6736,21 +6736,21 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>233</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>21</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>233</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>239</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>18</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>241</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>244</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>27</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>34</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>21</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>129</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>166</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>251</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>18</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>27</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>34</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>37</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>248</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>27</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>34</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>261</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>14</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>18</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>21</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>262</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>14</v>
       </c>
@@ -7762,21 +7762,21 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>75</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>287</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>27</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>280</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>27</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>281</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>282</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>283</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>18</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>27</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -8555,21 +8555,21 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>75</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>18</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>18</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>320</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>305</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>21</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>18</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -9215,21 +9215,21 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>336</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>337</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>287</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>338</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>75</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -9574,21 +9574,21 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>385</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>18</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>75</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>387</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>75</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>388</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>389</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>18</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>21</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>390</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>391</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>392</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>18</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>395</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>14</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>18</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>20</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>396</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>427</v>
       </c>
@@ -10498,21 +10498,21 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>443</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>75</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>446</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>396</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>456</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>457</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>459</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>21</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>396</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>465</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -4595,7 +4595,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4677,7 +4677,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5647,7 +5647,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5963,7 +5963,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6417,7 +6417,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6737,7 +6737,7 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7763,7 +7763,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8556,7 +8556,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9216,7 +9216,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9575,7 +9575,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10499,7 +10499,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8377" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99F48137-D20D-45F5-A9E0-1A9353E2ABE7}"/>
+  <xr:revisionPtr revIDLastSave="8379" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC0A5F5C-D223-493E-AF22-DA25EBE1DA4D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -4595,7 +4595,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4676,8 +4676,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5647,7 +5647,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5963,7 +5963,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6417,7 +6417,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6737,7 +6737,7 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7763,7 +7763,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8556,7 +8556,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9216,7 +9216,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9575,7 +9575,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10499,7 +10499,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8379" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC0A5F5C-D223-493E-AF22-DA25EBE1DA4D}"/>
+  <xr:revisionPtr revIDLastSave="8380" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B5F5E4B-EED1-4603-82CA-F85B6F0180AA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -4288,10 +4288,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4598,17 +4594,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4628,7 +4624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -4648,7 +4644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>152</v>
       </c>
@@ -4680,17 +4676,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4710,7 +4706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>472</v>
       </c>
@@ -4730,7 +4726,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4744,7 +4740,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -4758,7 +4754,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -4778,7 +4774,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>75</v>
       </c>
@@ -4792,7 +4788,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -4806,7 +4802,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>474</v>
       </c>
@@ -4826,7 +4822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -4840,7 +4836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -4854,7 +4850,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -4868,7 +4864,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -4888,7 +4884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -4908,7 +4904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -4922,7 +4918,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4936,7 +4932,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -4950,7 +4946,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -4970,7 +4966,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>75</v>
       </c>
@@ -4984,7 +4980,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4998,7 +4994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -5012,7 +5008,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>396</v>
       </c>
@@ -5029,7 +5025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>488</v>
       </c>
@@ -5040,7 +5036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>387</v>
       </c>
@@ -5060,7 +5056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>27</v>
       </c>
@@ -5074,7 +5070,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -5088,7 +5084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>75</v>
       </c>
@@ -5102,7 +5098,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -5122,7 +5118,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>75</v>
       </c>
@@ -5136,7 +5132,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5150,7 +5146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -5164,7 +5160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -5184,7 +5180,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>75</v>
       </c>
@@ -5198,7 +5194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>388</v>
       </c>
@@ -5218,7 +5214,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -5232,7 +5228,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -5246,7 +5242,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -5266,7 +5262,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>75</v>
       </c>
@@ -5280,7 +5276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -5294,7 +5290,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -5308,7 +5304,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -5322,7 +5318,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -5336,7 +5332,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -5350,7 +5346,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>500</v>
       </c>
@@ -5370,7 +5366,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -5384,7 +5380,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -5398,7 +5394,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -5418,7 +5414,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -5432,7 +5428,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -5446,7 +5442,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>18</v>
       </c>
@@ -5460,7 +5456,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -5480,7 +5476,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>75</v>
       </c>
@@ -5494,7 +5490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5508,7 +5504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>14</v>
       </c>
@@ -5522,7 +5518,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>18</v>
       </c>
@@ -5536,7 +5532,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>510</v>
       </c>
@@ -5556,7 +5552,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>512</v>
       </c>
@@ -5576,7 +5572,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>513</v>
       </c>
@@ -5590,7 +5586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>513</v>
       </c>
@@ -5604,7 +5600,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>396</v>
       </c>
@@ -5621,7 +5617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>139</v>
       </c>
@@ -5650,17 +5646,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5680,7 +5676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -5701,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -5722,7 +5718,7 @@
         <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -5743,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -5764,7 +5760,7 @@
         <v>0.76470588235294112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -5785,7 +5781,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -5806,7 +5802,7 @@
         <v>0.68965517241379315</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -5827,7 +5823,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -5848,7 +5844,7 @@
         <v>0.44117647058823528</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -5869,7 +5865,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -5890,7 +5886,7 @@
         <v>0.56097560975609762</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -5915,7 +5911,7 @@
         <v>0.5446808510638298</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>145</v>
       </c>
@@ -5966,17 +5962,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5996,7 +5992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>170</v>
       </c>
@@ -6016,7 +6012,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -6030,7 +6026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -6044,7 +6040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -6058,7 +6054,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6072,7 +6068,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -6092,7 +6088,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>27</v>
       </c>
@@ -6106,7 +6102,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>34</v>
       </c>
@@ -6120,7 +6116,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -6140,7 +6136,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -6154,7 +6150,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -6168,7 +6164,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -6182,7 +6178,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -6196,7 +6192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -6216,7 +6212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -6230,7 +6226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -6244,7 +6240,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -6258,7 +6254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -6278,7 +6274,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -6292,7 +6288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -6312,7 +6308,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6326,7 +6322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -6340,7 +6336,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -6360,7 +6356,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6374,7 +6370,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -6388,7 +6384,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -6420,17 +6416,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6450,7 +6446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -6470,7 +6466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -6490,7 +6486,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -6510,7 +6506,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -6524,7 +6520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -6544,7 +6540,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -6564,7 +6560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -6578,7 +6574,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -6592,7 +6588,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -6606,7 +6602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -6620,7 +6616,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>203</v>
       </c>
@@ -6640,7 +6636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>27</v>
       </c>
@@ -6654,7 +6650,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>166</v>
       </c>
@@ -6674,7 +6670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -6688,7 +6684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -6708,7 +6704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -6740,17 +6736,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6770,7 +6766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -6790,7 +6786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -6804,7 +6800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -6818,7 +6814,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -6832,7 +6828,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6846,7 +6842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -6866,7 +6862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -6880,7 +6876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -6894,7 +6890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -6908,7 +6904,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -6922,7 +6918,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>233</v>
       </c>
@@ -6942,7 +6938,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -6956,7 +6952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -6970,7 +6966,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -6984,7 +6980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>21</v>
       </c>
@@ -6998,7 +6994,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>233</v>
       </c>
@@ -7018,7 +7014,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7032,7 +7028,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -7046,7 +7042,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>239</v>
       </c>
@@ -7066,7 +7062,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -7080,7 +7076,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>18</v>
       </c>
@@ -7094,7 +7090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -7108,7 +7104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -7122,7 +7118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>241</v>
       </c>
@@ -7142,7 +7138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -7156,7 +7152,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -7170,7 +7166,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -7184,7 +7180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>244</v>
       </c>
@@ -7204,7 +7200,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>27</v>
       </c>
@@ -7218,7 +7214,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>34</v>
       </c>
@@ -7232,7 +7228,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -7246,7 +7242,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -7260,7 +7256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -7274,7 +7270,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -7288,7 +7284,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>21</v>
       </c>
@@ -7302,7 +7298,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -7319,7 +7315,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>129</v>
       </c>
@@ -7330,7 +7326,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>166</v>
       </c>
@@ -7350,7 +7346,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -7364,7 +7360,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>251</v>
       </c>
@@ -7384,7 +7380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -7398,7 +7394,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>18</v>
       </c>
@@ -7412,7 +7408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -7426,7 +7422,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -7440,7 +7436,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -7460,7 +7456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>27</v>
       </c>
@@ -7474,7 +7470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>34</v>
       </c>
@@ -7488,7 +7484,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>37</v>
       </c>
@@ -7502,7 +7498,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -7516,7 +7512,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>248</v>
       </c>
@@ -7536,7 +7532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>27</v>
       </c>
@@ -7550,7 +7546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>34</v>
       </c>
@@ -7564,7 +7560,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7578,7 +7574,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -7598,7 +7594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -7618,7 +7614,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>261</v>
       </c>
@@ -7638,7 +7634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>14</v>
       </c>
@@ -7652,7 +7648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>18</v>
       </c>
@@ -7666,7 +7662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -7680,7 +7676,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>21</v>
       </c>
@@ -7694,7 +7690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -7714,7 +7710,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>262</v>
       </c>
@@ -7734,7 +7730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>14</v>
       </c>
@@ -7766,17 +7762,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7796,7 +7792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -7816,7 +7812,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -7836,7 +7832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -7850,7 +7846,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -7870,7 +7866,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>75</v>
       </c>
@@ -7884,7 +7880,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>287</v>
       </c>
@@ -7904,7 +7900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>27</v>
       </c>
@@ -7918,7 +7914,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -7932,7 +7928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -7946,7 +7942,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -7966,7 +7962,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -7986,7 +7982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -8000,7 +7996,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8014,7 +8010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -8028,7 +8024,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -8048,7 +8044,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>280</v>
       </c>
@@ -8068,7 +8064,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -8082,7 +8078,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -8102,7 +8098,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>27</v>
       </c>
@@ -8116,7 +8112,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -8130,7 +8126,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -8144,7 +8140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -8158,7 +8154,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -8178,7 +8174,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>281</v>
       </c>
@@ -8198,7 +8194,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -8218,7 +8214,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -8238,7 +8234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>282</v>
       </c>
@@ -8258,7 +8254,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -8272,7 +8268,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>283</v>
       </c>
@@ -8292,7 +8288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -8306,7 +8302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>18</v>
       </c>
@@ -8320,7 +8316,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -8334,7 +8330,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -8354,7 +8350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -8374,7 +8370,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -8394,7 +8390,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -8408,7 +8404,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -8422,7 +8418,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -8436,7 +8432,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -8456,7 +8452,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>27</v>
       </c>
@@ -8470,7 +8466,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -8559,17 +8555,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8589,7 +8585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -8609,7 +8605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>75</v>
       </c>
@@ -8623,7 +8619,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -8643,7 +8639,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -8657,7 +8653,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>18</v>
       </c>
@@ -8671,7 +8667,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -8685,7 +8681,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -8699,7 +8695,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -8719,7 +8715,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -8733,7 +8729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8747,7 +8743,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -8761,7 +8757,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -8775,7 +8771,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -8795,7 +8791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -8809,7 +8805,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8823,7 +8819,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -8837,7 +8833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>18</v>
       </c>
@@ -8851,7 +8847,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -8868,7 +8864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>320</v>
       </c>
@@ -8879,7 +8875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>305</v>
       </c>
@@ -8899,7 +8895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -8913,7 +8909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -8927,7 +8923,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -8941,7 +8937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>21</v>
       </c>
@@ -8955,7 +8951,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -8975,7 +8971,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -8989,7 +8985,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -9003,7 +8999,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -9017,7 +9013,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -9037,7 +9033,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -9051,7 +9047,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -9065,7 +9061,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -9079,7 +9075,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>18</v>
       </c>
@@ -9093,7 +9089,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -9107,7 +9103,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -9121,7 +9117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -9141,7 +9137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -9155,7 +9151,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -9219,17 +9215,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9249,7 +9245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>336</v>
       </c>
@@ -9269,7 +9265,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9283,7 +9279,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9297,7 +9293,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -9317,7 +9313,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>337</v>
       </c>
@@ -9337,7 +9333,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -9357,7 +9353,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -9371,7 +9367,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>287</v>
       </c>
@@ -9391,7 +9387,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>338</v>
       </c>
@@ -9411,7 +9407,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -9431,7 +9427,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -9451,7 +9447,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>75</v>
       </c>
@@ -9465,7 +9461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -9485,7 +9481,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -9499,7 +9495,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -9513,7 +9509,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -9527,7 +9523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -9541,7 +9537,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -9578,17 +9574,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9608,7 +9604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -9628,7 +9624,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>385</v>
       </c>
@@ -9648,7 +9644,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -9662,7 +9658,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>18</v>
       </c>
@@ -9676,7 +9672,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -9690,7 +9686,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -9710,7 +9706,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>75</v>
       </c>
@@ -9724,7 +9720,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -9738,7 +9734,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -9752,7 +9748,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -9772,7 +9768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -9786,7 +9782,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -9806,7 +9802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -9820,7 +9816,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -9834,7 +9830,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -9854,7 +9850,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -9868,7 +9864,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>387</v>
       </c>
@@ -9888,7 +9884,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -9908,7 +9904,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -9928,7 +9924,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>75</v>
       </c>
@@ -9942,7 +9938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -9956,7 +9952,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -9970,7 +9966,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>388</v>
       </c>
@@ -9990,7 +9986,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -10010,7 +10006,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -10030,7 +10026,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -10044,7 +10040,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>389</v>
       </c>
@@ -10064,7 +10060,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -10078,7 +10074,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -10092,7 +10088,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>18</v>
       </c>
@@ -10106,7 +10102,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -10120,7 +10116,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>21</v>
       </c>
@@ -10134,7 +10130,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -10154,7 +10150,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>390</v>
       </c>
@@ -10174,7 +10170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -10188,7 +10184,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -10202,7 +10198,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -10222,7 +10218,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -10236,7 +10232,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>391</v>
       </c>
@@ -10256,7 +10252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -10270,7 +10266,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -10284,7 +10280,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -10298,7 +10294,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>392</v>
       </c>
@@ -10318,7 +10314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -10332,7 +10328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -10346,7 +10342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>18</v>
       </c>
@@ -10360,7 +10356,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -10374,7 +10370,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -10394,7 +10390,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>395</v>
       </c>
@@ -10414,7 +10410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>14</v>
       </c>
@@ -10428,7 +10424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>18</v>
       </c>
@@ -10442,7 +10438,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>20</v>
       </c>
@@ -10456,7 +10452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>396</v>
       </c>
@@ -10473,7 +10469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>427</v>
       </c>
@@ -10502,17 +10498,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10532,7 +10528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>443</v>
       </c>
@@ -10552,7 +10548,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -10566,7 +10562,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -10586,7 +10582,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>75</v>
       </c>
@@ -10600,7 +10596,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -10614,7 +10610,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>446</v>
       </c>
@@ -10634,7 +10630,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -10654,7 +10650,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -10668,7 +10664,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -10682,7 +10678,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -10696,7 +10692,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -10710,7 +10706,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -10724,7 +10720,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -10738,7 +10734,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -10758,7 +10754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -10772,7 +10768,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -10786,7 +10782,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>396</v>
       </c>
@@ -10803,7 +10799,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>456</v>
       </c>
@@ -10814,7 +10810,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -10834,7 +10830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>457</v>
       </c>
@@ -10854,7 +10850,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>459</v>
       </c>
@@ -10874,7 +10870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -10888,7 +10884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -10902,7 +10898,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -10916,7 +10912,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>21</v>
       </c>
@@ -10930,7 +10926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>396</v>
       </c>
@@ -10947,7 +10943,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>465</v>
       </c>
@@ -10967,7 +10963,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -10981,7 +10977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8380" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B5F5E4B-EED1-4603-82CA-F85B6F0180AA}"/>
+  <xr:revisionPtr revIDLastSave="8381" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70BDDD18-94A6-4779-8892-E4E7C25BA92E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="4" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -4594,17 +4594,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>152</v>
       </c>
@@ -4676,17 +4676,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>472</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>75</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>474</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>75</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>396</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>488</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>387</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>27</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>75</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>75</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>75</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>388</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>75</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>500</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>18</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>75</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>14</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>18</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>510</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>512</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>513</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>513</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>396</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>139</v>
       </c>
@@ -5646,17 +5646,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>0.76470588235294112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>0.68965517241379315</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>0.44117647058823528</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>0.56097560975609762</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>0.5446808510638298</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>145</v>
       </c>
@@ -5962,17 +5962,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>170</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>27</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>34</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -6416,17 +6416,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>203</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>27</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>166</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -6736,17 +6736,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>233</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>21</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>233</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>239</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>18</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>241</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>244</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>27</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>34</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>21</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>129</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>166</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>251</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>18</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>27</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>34</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>37</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>248</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>27</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>34</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>261</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>14</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>18</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>21</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>262</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>14</v>
       </c>
@@ -7762,17 +7762,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>75</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>287</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>27</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>280</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>27</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>281</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>282</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>283</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>18</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>27</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -8555,17 +8555,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>75</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>18</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>18</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>320</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>305</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>21</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>18</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -9215,17 +9215,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>336</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>337</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>287</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>338</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>75</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -9574,17 +9574,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>385</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>18</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>75</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>387</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>75</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>388</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>389</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>18</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>21</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>390</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>391</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>392</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>18</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>395</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>14</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>18</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>20</v>
       </c>
@@ -10452,7 +10452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>396</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>427</v>
       </c>
@@ -10498,17 +10498,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>443</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>75</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>446</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>396</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>456</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>457</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>459</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>21</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>396</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>465</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8381" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70BDDD18-94A6-4779-8892-E4E7C25BA92E}"/>
+  <xr:revisionPtr revIDLastSave="8382" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BF3E68D-DE5D-457F-A17C-575B62293004}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="4" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -4288,6 +4288,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4594,17 +4598,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4624,7 +4628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -4644,7 +4648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>152</v>
       </c>
@@ -4672,21 +4676,21 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4706,7 +4710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>472</v>
       </c>
@@ -4726,7 +4730,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4740,7 +4744,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -4754,7 +4758,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -4774,7 +4778,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>75</v>
       </c>
@@ -4788,7 +4792,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -4802,7 +4806,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>474</v>
       </c>
@@ -4822,7 +4826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -4836,7 +4840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -4850,7 +4854,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -4864,7 +4868,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -4884,7 +4888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -4904,7 +4908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -4918,7 +4922,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4932,7 +4936,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -4946,7 +4950,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -4966,7 +4970,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>75</v>
       </c>
@@ -4980,7 +4984,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -4994,7 +4998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -5008,7 +5012,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>396</v>
       </c>
@@ -5025,7 +5029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>488</v>
       </c>
@@ -5036,7 +5040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>387</v>
       </c>
@@ -5056,7 +5060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>27</v>
       </c>
@@ -5070,7 +5074,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -5084,7 +5088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>75</v>
       </c>
@@ -5098,7 +5102,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -5118,7 +5122,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>75</v>
       </c>
@@ -5132,7 +5136,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5146,7 +5150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -5160,7 +5164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -5180,7 +5184,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>75</v>
       </c>
@@ -5194,7 +5198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>388</v>
       </c>
@@ -5214,7 +5218,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -5228,7 +5232,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -5242,7 +5246,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -5262,7 +5266,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>75</v>
       </c>
@@ -5276,7 +5280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -5290,7 +5294,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -5304,7 +5308,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -5318,7 +5322,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -5332,7 +5336,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -5346,7 +5350,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>500</v>
       </c>
@@ -5366,7 +5370,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -5380,7 +5384,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -5394,7 +5398,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -5414,7 +5418,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -5428,7 +5432,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -5442,7 +5446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>18</v>
       </c>
@@ -5456,7 +5460,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -5476,7 +5480,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>75</v>
       </c>
@@ -5490,7 +5494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5504,7 +5508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>14</v>
       </c>
@@ -5518,7 +5522,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>18</v>
       </c>
@@ -5532,7 +5536,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>510</v>
       </c>
@@ -5552,7 +5556,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>512</v>
       </c>
@@ -5572,7 +5576,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>513</v>
       </c>
@@ -5586,7 +5590,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>513</v>
       </c>
@@ -5600,7 +5604,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>396</v>
       </c>
@@ -5617,7 +5621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>139</v>
       </c>
@@ -5646,17 +5650,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5676,7 +5680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -5697,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -5718,7 +5722,7 @@
         <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -5739,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -5760,7 +5764,7 @@
         <v>0.76470588235294112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -5781,7 +5785,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -5802,7 +5806,7 @@
         <v>0.68965517241379315</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -5823,7 +5827,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -5844,7 +5848,7 @@
         <v>0.44117647058823528</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -5865,7 +5869,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -5886,7 +5890,7 @@
         <v>0.56097560975609762</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -5911,7 +5915,7 @@
         <v>0.5446808510638298</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>145</v>
       </c>
@@ -5962,17 +5966,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5992,7 +5996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>170</v>
       </c>
@@ -6012,7 +6016,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -6026,7 +6030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -6040,7 +6044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -6054,7 +6058,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6068,7 +6072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -6088,7 +6092,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>27</v>
       </c>
@@ -6102,7 +6106,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>34</v>
       </c>
@@ -6116,7 +6120,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -6136,7 +6140,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -6150,7 +6154,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -6164,7 +6168,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -6178,7 +6182,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -6192,7 +6196,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -6212,7 +6216,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -6226,7 +6230,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -6240,7 +6244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -6254,7 +6258,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -6274,7 +6278,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -6288,7 +6292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -6308,7 +6312,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6322,7 +6326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -6336,7 +6340,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -6356,7 +6360,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6370,7 +6374,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -6384,7 +6388,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -6416,17 +6420,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6446,7 +6450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -6466,7 +6470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -6486,7 +6490,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -6506,7 +6510,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -6520,7 +6524,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -6540,7 +6544,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -6560,7 +6564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -6574,7 +6578,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -6588,7 +6592,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -6602,7 +6606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -6616,7 +6620,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>203</v>
       </c>
@@ -6636,7 +6640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>27</v>
       </c>
@@ -6650,7 +6654,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>166</v>
       </c>
@@ -6670,7 +6674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -6684,7 +6688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -6704,7 +6708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -6736,17 +6740,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6766,7 +6770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -6786,7 +6790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -6800,7 +6804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -6814,7 +6818,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -6828,7 +6832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6842,7 +6846,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -6862,7 +6866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -6876,7 +6880,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -6890,7 +6894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -6904,7 +6908,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -6918,7 +6922,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>233</v>
       </c>
@@ -6938,7 +6942,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -6952,7 +6956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -6966,7 +6970,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -6980,7 +6984,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>21</v>
       </c>
@@ -6994,7 +6998,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>233</v>
       </c>
@@ -7014,7 +7018,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7028,7 +7032,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -7042,7 +7046,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>239</v>
       </c>
@@ -7062,7 +7066,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -7076,7 +7080,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>18</v>
       </c>
@@ -7090,7 +7094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -7104,7 +7108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -7118,7 +7122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>241</v>
       </c>
@@ -7138,7 +7142,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -7152,7 +7156,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -7166,7 +7170,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -7180,7 +7184,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>244</v>
       </c>
@@ -7200,7 +7204,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>27</v>
       </c>
@@ -7214,7 +7218,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>34</v>
       </c>
@@ -7228,7 +7232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -7242,7 +7246,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -7256,7 +7260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -7270,7 +7274,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -7284,7 +7288,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>21</v>
       </c>
@@ -7298,7 +7302,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -7315,7 +7319,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>129</v>
       </c>
@@ -7326,7 +7330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>166</v>
       </c>
@@ -7346,7 +7350,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -7360,7 +7364,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>251</v>
       </c>
@@ -7380,7 +7384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -7394,7 +7398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>18</v>
       </c>
@@ -7408,7 +7412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -7422,7 +7426,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -7436,7 +7440,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>27</v>
       </c>
@@ -7470,7 +7474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>34</v>
       </c>
@@ -7484,7 +7488,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>37</v>
       </c>
@@ -7498,7 +7502,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -7512,7 +7516,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>248</v>
       </c>
@@ -7532,7 +7536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>27</v>
       </c>
@@ -7546,7 +7550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>34</v>
       </c>
@@ -7560,7 +7564,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7574,7 +7578,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -7594,7 +7598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -7614,7 +7618,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>261</v>
       </c>
@@ -7634,7 +7638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>14</v>
       </c>
@@ -7648,7 +7652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>18</v>
       </c>
@@ -7662,7 +7666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -7676,7 +7680,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>21</v>
       </c>
@@ -7690,7 +7694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -7710,7 +7714,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>262</v>
       </c>
@@ -7730,7 +7734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>14</v>
       </c>
@@ -7762,17 +7766,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7792,7 +7796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -7812,7 +7816,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -7832,7 +7836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -7846,7 +7850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -7866,7 +7870,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>75</v>
       </c>
@@ -7880,7 +7884,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>287</v>
       </c>
@@ -7900,7 +7904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>27</v>
       </c>
@@ -7914,7 +7918,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -7928,7 +7932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -7942,7 +7946,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -7962,7 +7966,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -7982,7 +7986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -7996,7 +8000,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8010,7 +8014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -8024,7 +8028,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -8044,7 +8048,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>280</v>
       </c>
@@ -8064,7 +8068,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -8078,7 +8082,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -8098,7 +8102,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>27</v>
       </c>
@@ -8112,7 +8116,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -8126,7 +8130,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -8140,7 +8144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -8154,7 +8158,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -8174,7 +8178,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>281</v>
       </c>
@@ -8194,7 +8198,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -8214,7 +8218,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -8234,7 +8238,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>282</v>
       </c>
@@ -8254,7 +8258,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -8268,7 +8272,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>283</v>
       </c>
@@ -8288,7 +8292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -8302,7 +8306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>18</v>
       </c>
@@ -8316,7 +8320,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -8330,7 +8334,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -8350,7 +8354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -8370,7 +8374,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -8390,7 +8394,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -8404,7 +8408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -8418,7 +8422,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -8432,7 +8436,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -8452,7 +8456,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>27</v>
       </c>
@@ -8466,7 +8470,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -8555,17 +8559,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8585,7 +8589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -8605,7 +8609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>75</v>
       </c>
@@ -8619,7 +8623,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -8639,7 +8643,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -8653,7 +8657,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>18</v>
       </c>
@@ -8667,7 +8671,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -8681,7 +8685,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -8695,7 +8699,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -8715,7 +8719,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -8729,7 +8733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8743,7 +8747,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -8757,7 +8761,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -8771,7 +8775,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -8791,7 +8795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -8805,7 +8809,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8819,7 +8823,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -8833,7 +8837,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>18</v>
       </c>
@@ -8847,7 +8851,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -8864,7 +8868,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>320</v>
       </c>
@@ -8875,7 +8879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>305</v>
       </c>
@@ -8895,7 +8899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -8909,7 +8913,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -8923,7 +8927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -8937,7 +8941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>21</v>
       </c>
@@ -8951,7 +8955,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -8971,7 +8975,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -8985,7 +8989,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -8999,7 +9003,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -9013,7 +9017,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -9033,7 +9037,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -9047,7 +9051,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -9061,7 +9065,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -9075,7 +9079,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>18</v>
       </c>
@@ -9089,7 +9093,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -9103,7 +9107,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -9117,7 +9121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -9137,7 +9141,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -9151,7 +9155,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -9215,17 +9219,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9245,7 +9249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>336</v>
       </c>
@@ -9265,7 +9269,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9279,7 +9283,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9293,7 +9297,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -9313,7 +9317,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>337</v>
       </c>
@@ -9333,7 +9337,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -9353,7 +9357,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -9367,7 +9371,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>287</v>
       </c>
@@ -9387,7 +9391,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>338</v>
       </c>
@@ -9407,7 +9411,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -9427,7 +9431,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -9447,7 +9451,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>75</v>
       </c>
@@ -9461,7 +9465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -9481,7 +9485,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -9495,7 +9499,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -9509,7 +9513,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -9523,7 +9527,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -9537,7 +9541,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -9574,17 +9578,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9604,7 +9608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>384</v>
       </c>
@@ -9624,7 +9628,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>385</v>
       </c>
@@ -9644,7 +9648,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -9658,7 +9662,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>18</v>
       </c>
@@ -9672,7 +9676,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -9686,7 +9690,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -9706,7 +9710,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>75</v>
       </c>
@@ -9720,7 +9724,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -9734,7 +9738,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -9748,7 +9752,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -9768,7 +9772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -9782,7 +9786,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -9802,7 +9806,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -9816,7 +9820,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -9830,7 +9834,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -9850,7 +9854,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -9864,7 +9868,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>387</v>
       </c>
@@ -9884,7 +9888,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -9904,7 +9908,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -9924,7 +9928,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>75</v>
       </c>
@@ -9938,7 +9942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -9952,7 +9956,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -9966,7 +9970,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>388</v>
       </c>
@@ -9986,7 +9990,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -10006,7 +10010,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -10026,7 +10030,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -10040,7 +10044,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>389</v>
       </c>
@@ -10060,7 +10064,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -10074,7 +10078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -10088,7 +10092,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>18</v>
       </c>
@@ -10102,7 +10106,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -10116,7 +10120,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>21</v>
       </c>
@@ -10130,7 +10134,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -10150,7 +10154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>390</v>
       </c>
@@ -10170,7 +10174,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -10184,7 +10188,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -10198,7 +10202,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -10218,7 +10222,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -10232,7 +10236,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>391</v>
       </c>
@@ -10252,7 +10256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -10266,7 +10270,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -10280,7 +10284,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -10294,7 +10298,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>392</v>
       </c>
@@ -10314,7 +10318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -10328,7 +10332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -10342,7 +10346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>18</v>
       </c>
@@ -10356,7 +10360,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -10370,7 +10374,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -10390,7 +10394,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>395</v>
       </c>
@@ -10410,7 +10414,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>14</v>
       </c>
@@ -10424,7 +10428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>18</v>
       </c>
@@ -10438,7 +10442,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>20</v>
       </c>
@@ -10452,7 +10456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>396</v>
       </c>
@@ -10469,7 +10473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>427</v>
       </c>
@@ -10498,17 +10502,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10528,7 +10532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>443</v>
       </c>
@@ -10548,7 +10552,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -10562,7 +10566,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -10582,7 +10586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>75</v>
       </c>
@@ -10596,7 +10600,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -10610,7 +10614,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>446</v>
       </c>
@@ -10630,7 +10634,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -10650,7 +10654,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -10664,7 +10668,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -10678,7 +10682,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -10692,7 +10696,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -10706,7 +10710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -10720,7 +10724,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -10734,7 +10738,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -10754,7 +10758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -10768,7 +10772,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -10782,7 +10786,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>396</v>
       </c>
@@ -10799,7 +10803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>456</v>
       </c>
@@ -10810,7 +10814,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -10830,7 +10834,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>457</v>
       </c>
@@ -10850,7 +10854,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>459</v>
       </c>
@@ -10870,7 +10874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -10884,7 +10888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -10898,7 +10902,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -10912,7 +10916,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>21</v>
       </c>
@@ -10926,7 +10930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>396</v>
       </c>
@@ -10943,7 +10947,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>465</v>
       </c>
@@ -10963,7 +10967,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -10977,7 +10981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8382" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BF3E68D-DE5D-457F-A17C-575B62293004}"/>
+  <xr:revisionPtr revIDLastSave="8419" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{486DC1A4-5436-459B-924F-789C64084A2A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="2021" sheetId="28" r:id="rId8"/>
     <sheet name="2022" sheetId="31" r:id="rId9"/>
     <sheet name="2023" sheetId="34" r:id="rId10"/>
-    <sheet name="Stats" sheetId="1" r:id="rId11"/>
-    <sheet name="Wins-Losses" sheetId="35" r:id="rId12"/>
-    <sheet name="Winning Percentile Range" sheetId="38" r:id="rId13"/>
+    <sheet name="2024" sheetId="39" r:id="rId11"/>
+    <sheet name="Stats" sheetId="1" r:id="rId12"/>
+    <sheet name="Wins-Losses" sheetId="40" r:id="rId13"/>
+    <sheet name="Winning Percentile Range" sheetId="41" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="518">
   <si>
     <t>ROUND</t>
   </si>
@@ -2104,10 +2105,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$11</c:f>
+              <c:f>Stats!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2138,15 +2139,18 @@
                 <c:pt idx="9">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$11</c:f>
+              <c:f>Stats!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2177,12 +2181,15 @@
                 <c:pt idx="9">
                   <c:v>41</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DB9A-465B-ADD8-60FF5DB18F8C}"/>
+              <c16:uniqueId val="{00000000-8FD1-4364-8321-551A69A12CA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2212,10 +2219,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$11</c:f>
+              <c:f>Stats!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2246,15 +2253,18 @@
                 <c:pt idx="9">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$11</c:f>
+              <c:f>Stats!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2285,12 +2295,15 @@
                 <c:pt idx="9">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DB9A-465B-ADD8-60FF5DB18F8C}"/>
+              <c16:uniqueId val="{00000001-8FD1-4364-8321-551A69A12CA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2304,11 +2317,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="994365696"/>
-        <c:axId val="994364032"/>
+        <c:axId val="706725984"/>
+        <c:axId val="1045843408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="994365696"/>
+        <c:axId val="706725984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2406,7 +2419,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="994364032"/>
+        <c:crossAx val="1045843408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2414,7 +2427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="994364032"/>
+        <c:axId val="1045843408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2520,7 +2533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="994365696"/>
+        <c:crossAx val="706725984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2630,13 +2643,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Markéta Vondroušová (CZECH REPUBLIC): Winning</a:t>
+              <a:t>Markéta Vondroušová (CZECH REPUBLIC): Winning Percentile Range</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Percentile Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2729,10 +2737,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$11</c:f>
+              <c:f>Stats!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2763,15 +2771,18 @@
                 <c:pt idx="9">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$11</c:f>
+              <c:f>Stats!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2802,13 +2813,16 @@
                 <c:pt idx="9">
                   <c:v>0.56097560975609762</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B3B8-464B-AC1F-C67FCFD5F3E4}"/>
+              <c16:uniqueId val="{00000001-0887-4841-839B-6C818A00CCCD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2822,11 +2836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1147319104"/>
-        <c:axId val="1147314528"/>
+        <c:axId val="1002607024"/>
+        <c:axId val="1013409040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1147319104"/>
+        <c:axId val="1002607024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2924,7 +2938,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1147314528"/>
+        <c:crossAx val="1013409040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2932,7 +2946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1147314528"/>
+        <c:axId val="1013409040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3038,7 +3052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1147319104"/>
+        <c:crossAx val="1002607024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4200,25 +4214,26 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E6145E28-0547-4579-93EB-B81AD4CEAC43}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1C318B00-93DC-4008-B73F-EE0B12B6759C}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B1CD2067-AA7C-4818-80F8-C546C694AAA0}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8AFC91AF-62F5-4A59-AE07-5295474B5EFF}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -4232,7 +4247,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C37CBC-A440-E13A-C08B-DEDCD489DDF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C82165-82F8-55A7-690B-56A0C6EE9739}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4259,13 +4274,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB02D38-FF5C-1D22-A83C-9AC59858C8C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EABBC4-7367-0D51-F0BE-2395F51F5173}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4293,9 +4308,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4333,7 +4348,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4439,7 +4454,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4581,7 +4596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4594,8 +4609,8 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4676,8 +4691,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5640,14 +5655,81 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7016A47-DE74-46CB-A3B8-1768464C14CE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5697,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F11" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F12" si="0">(D2-E2)/D2</f>
         <v>0</v>
       </c>
     </row>
@@ -5891,57 +5973,78 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2">
-        <f>SUM(B2:B11)</f>
-        <v>122</v>
-      </c>
-      <c r="C12" s="2">
-        <f>SUM(C2:C11)</f>
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <f>SUM(D2:D11)</f>
-        <v>235</v>
-      </c>
-      <c r="E12" s="2">
-        <f>SUM(E2:E11)</f>
-        <v>107</v>
-      </c>
-      <c r="F12" s="3">
-        <f>(D12-E12)/D12</f>
-        <v>0.5446808510638298</v>
+      <c r="A12">
+        <v>2024</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2">
-        <f>AVERAGE(B2:B11)</f>
-        <v>12.2</v>
+        <f>SUM(B2:B12)</f>
+        <v>123</v>
       </c>
       <c r="C13" s="2">
-        <f>AVERAGE(C2:C11)</f>
-        <v>0.2</v>
+        <f>SUM(C2:C12)</f>
+        <v>2</v>
       </c>
       <c r="D13" s="2">
-        <f>AVERAGE(D2:D11)</f>
-        <v>23.5</v>
+        <f>SUM(D2:D12)</f>
+        <v>235</v>
       </c>
       <c r="E13" s="2">
-        <f>AVERAGE(E2:E11)</f>
-        <v>10.7</v>
+        <f>SUM(E2:E12)</f>
+        <v>108</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.5446808510638298</v>
+        <v>0.54042553191489362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(B2:B12)</f>
+        <v>11.181818181818182</v>
+      </c>
+      <c r="C14" s="2">
+        <f>AVERAGE(C2:C12)</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="D14" s="2">
+        <f>AVERAGE(D2:D12)</f>
+        <v>21.363636363636363</v>
+      </c>
+      <c r="E14" s="2">
+        <f>AVERAGE(E2:E12)</f>
+        <v>9.8181818181818183</v>
+      </c>
+      <c r="F14" s="3">
+        <f>(D14-E14)/D14</f>
+        <v>0.54042553191489362</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F11">
+  <conditionalFormatting sqref="F2:F12">
     <cfRule type="iconSet" priority="39">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -5962,8 +6065,8 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6416,8 +6519,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6736,8 +6839,8 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7762,8 +7865,8 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8555,8 +8658,8 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9215,8 +9318,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9574,8 +9677,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10498,8 +10601,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8419" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{486DC1A4-5436-459B-924F-789C64084A2A}"/>
+  <xr:revisionPtr revIDLastSave="8422" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E083D19C-DF10-49FC-871E-6F55888980BB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="516">
   <si>
     <t>ROUND</t>
   </si>
@@ -502,12 +502,6 @@
   </si>
   <si>
     <t>7-6(3) 6-2</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R32</t>
   </si>
   <si>
     <t>ITF ANTALYA ($10,000)</t>
@@ -4610,14 +4604,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -4645,16 +4639,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>153</v>
-      </c>
-      <c r="D2" t="s">
-        <v>155</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -4665,10 +4659,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
@@ -4727,7 +4721,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -4736,13 +4730,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4750,13 +4744,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4770,7 +4764,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4784,13 +4778,13 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4804,7 +4798,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4812,18 +4806,18 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -4832,7 +4826,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -4846,7 +4840,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -4860,13 +4854,13 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4874,13 +4868,13 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4914,7 +4908,7 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -4934,7 +4928,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4956,13 +4950,13 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4976,13 +4970,13 @@
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4990,13 +4984,13 @@
         <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5018,18 +5012,18 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -5046,7 +5040,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -5057,7 +5051,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
@@ -5066,7 +5060,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -5080,13 +5074,13 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5094,7 +5088,7 @@
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -5108,13 +5102,13 @@
         <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5128,13 +5122,13 @@
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5142,13 +5136,13 @@
         <v>75</v>
       </c>
       <c r="D36" t="s">
+        <v>491</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
         <v>493</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5156,7 +5150,7 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
@@ -5170,7 +5164,7 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
@@ -5190,13 +5184,13 @@
         <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5204,7 +5198,7 @@
         <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>17</v>
@@ -5215,7 +5209,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
@@ -5224,13 +5218,13 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -5238,13 +5232,13 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
+        <v>495</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
         <v>497</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5252,13 +5246,13 @@
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5272,7 +5266,7 @@
         <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
@@ -5286,7 +5280,7 @@
         <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
@@ -5300,7 +5294,7 @@
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>16</v>
@@ -5320,7 +5314,7 @@
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5328,13 +5322,13 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -5342,13 +5336,13 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -5356,18 +5350,18 @@
         <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B55" t="s">
         <v>25</v>
@@ -5376,13 +5370,13 @@
         <v>75</v>
       </c>
       <c r="D55" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -5390,7 +5384,7 @@
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
@@ -5404,7 +5398,7 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>17</v>
@@ -5438,13 +5432,13 @@
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5452,7 +5446,7 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
@@ -5466,13 +5460,13 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -5486,7 +5480,7 @@
         <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
@@ -5500,7 +5494,7 @@
         <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
@@ -5514,7 +5508,7 @@
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>16</v>
@@ -5528,13 +5522,13 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -5542,7 +5536,7 @@
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>17</v>
@@ -5553,7 +5547,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B70" t="s">
         <v>25</v>
@@ -5568,35 +5562,35 @@
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B72" t="s">
         <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D72" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D73" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>17</v>
@@ -5607,27 +5601,27 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D74" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B76" t="s">
         <v>25</v>
       </c>
       <c r="D76" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>16</v>
@@ -5644,7 +5638,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -6065,7 +6059,7 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
@@ -6101,7 +6095,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -6110,7 +6104,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -6124,7 +6118,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -6138,7 +6132,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -6158,7 +6152,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6177,7 +6171,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -6186,13 +6180,13 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6206,7 +6200,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6214,7 +6208,7 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
@@ -6225,7 +6219,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -6234,7 +6228,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -6248,13 +6242,13 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6262,7 +6256,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -6276,13 +6270,13 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6290,7 +6284,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -6301,7 +6295,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -6310,7 +6304,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
@@ -6324,7 +6318,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -6352,7 +6346,7 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -6363,7 +6357,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -6372,7 +6366,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -6386,7 +6380,7 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
@@ -6397,7 +6391,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
         <v>90</v>
@@ -6406,7 +6400,7 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
@@ -6420,7 +6414,7 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -6434,18 +6428,18 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -6454,7 +6448,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -6468,13 +6462,13 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6482,7 +6476,7 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -6564,7 +6558,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -6590,7 +6584,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6629,7 +6623,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -6638,18 +6632,18 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -6658,7 +6652,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -6672,13 +6666,13 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6686,7 +6680,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -6700,7 +6694,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -6714,7 +6708,7 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
@@ -6725,7 +6719,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -6734,7 +6728,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -6748,7 +6742,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>17</v>
@@ -6759,7 +6753,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -6793,7 +6787,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -6816,13 +6810,13 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6839,7 +6833,7 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
@@ -6875,7 +6869,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -6912,13 +6906,13 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6951,7 +6945,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -6960,7 +6954,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
@@ -6988,7 +6982,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -7002,13 +6996,13 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7027,7 +7021,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -7036,13 +7030,13 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7064,13 +7058,13 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7078,7 +7072,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -7098,12 +7092,12 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -7112,7 +7106,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -7132,7 +7126,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7140,7 +7134,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
@@ -7151,7 +7145,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -7160,7 +7154,7 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
@@ -7180,7 +7174,7 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7202,7 +7196,7 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -7227,7 +7221,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -7236,7 +7230,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -7256,7 +7250,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7264,7 +7258,7 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -7278,7 +7272,7 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
@@ -7289,7 +7283,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -7298,7 +7292,7 @@
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
@@ -7340,13 +7334,13 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7354,7 +7348,7 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
@@ -7368,13 +7362,13 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7402,7 +7396,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -7419,7 +7413,7 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -7435,7 +7429,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
@@ -7444,13 +7438,13 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -7458,7 +7452,7 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>17</v>
@@ -7469,7 +7463,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
@@ -7478,7 +7472,7 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
@@ -7520,13 +7514,13 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7540,7 +7534,7 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -7596,13 +7590,13 @@
         <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -7621,7 +7615,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B62" t="s">
         <v>83</v>
@@ -7630,7 +7624,7 @@
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>16</v>
@@ -7644,7 +7638,7 @@
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
@@ -7658,13 +7652,13 @@
         <v>34</v>
       </c>
       <c r="D64" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -7678,7 +7672,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -7692,7 +7686,7 @@
         <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>17</v>
@@ -7712,18 +7706,18 @@
         <v>37</v>
       </c>
       <c r="D69" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
@@ -7732,7 +7726,7 @@
         <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
@@ -7746,7 +7740,7 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>16</v>
@@ -7760,7 +7754,7 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>16</v>
@@ -7774,13 +7768,13 @@
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -7788,7 +7782,7 @@
         <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
@@ -7808,18 +7802,18 @@
         <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B79" t="s">
         <v>25</v>
@@ -7828,7 +7822,7 @@
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>16</v>
@@ -7848,7 +7842,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -7910,13 +7904,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7930,7 +7924,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -7944,7 +7938,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>17</v>
@@ -7964,7 +7958,7 @@
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
@@ -7984,12 +7978,12 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -7998,7 +7992,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -8012,7 +8006,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -8060,13 +8054,13 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8122,13 +8116,13 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8148,12 +8142,12 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -8168,7 +8162,7 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8182,7 +8176,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8196,7 +8190,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -8216,7 +8210,7 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8224,13 +8218,13 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8238,7 +8232,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -8258,7 +8252,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8278,12 +8272,12 @@
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s">
         <v>83</v>
@@ -8298,7 +8292,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -8343,7 +8337,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -8352,13 +8346,13 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8377,7 +8371,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
@@ -8386,7 +8380,7 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
@@ -8400,7 +8394,7 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
@@ -8428,7 +8422,7 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>17</v>
@@ -8502,7 +8496,7 @@
         <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
@@ -8516,13 +8510,13 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -8530,13 +8524,13 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -8556,7 +8550,7 @@
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -8578,13 +8572,13 @@
         <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -8717,7 +8711,7 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>17</v>
@@ -8728,7 +8722,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -8737,13 +8731,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8757,7 +8751,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8771,7 +8765,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8779,13 +8773,13 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8799,7 +8793,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8861,7 +8855,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8875,7 +8869,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8909,7 +8903,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8923,7 +8917,7 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8951,7 +8945,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8973,7 +8967,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
@@ -8984,7 +8978,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -9007,7 +9001,7 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -9021,7 +9015,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -9049,13 +9043,13 @@
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9075,7 +9069,7 @@
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9089,7 +9083,7 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -9103,7 +9097,7 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9117,7 +9111,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9137,7 +9131,7 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -9145,13 +9139,13 @@
         <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -9159,13 +9153,13 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -9173,13 +9167,13 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -9187,13 +9181,13 @@
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -9207,7 +9201,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -9235,7 +9229,7 @@
         <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
@@ -9255,7 +9249,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -9354,7 +9348,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -9377,13 +9371,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9397,7 +9391,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9411,18 +9405,18 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -9437,7 +9431,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9451,13 +9445,13 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9465,18 +9459,18 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -9485,18 +9479,18 @@
         <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -9505,13 +9499,13 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9531,7 +9525,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9545,7 +9539,7 @@
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -9559,7 +9553,7 @@
         <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
@@ -9579,13 +9573,13 @@
         <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -9593,7 +9587,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -9607,13 +9601,13 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -9655,7 +9649,7 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
@@ -9713,7 +9707,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -9722,18 +9716,18 @@
         <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -9742,13 +9736,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9756,13 +9750,13 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9776,7 +9770,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9784,13 +9778,13 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9804,13 +9798,13 @@
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9818,13 +9812,13 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9832,7 +9826,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -9846,13 +9840,13 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9880,13 +9874,13 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9900,7 +9894,7 @@
         <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -9914,13 +9908,13 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9934,7 +9928,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9954,7 +9948,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -9968,12 +9962,12 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -9982,13 +9976,13 @@
         <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10008,7 +10002,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -10022,13 +10016,13 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -10036,7 +10030,7 @@
         <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -10050,7 +10044,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -10064,18 +10058,18 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B33" t="s">
         <v>83</v>
@@ -10084,7 +10078,7 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
@@ -10104,13 +10098,13 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -10124,13 +10118,13 @@
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -10138,18 +10132,18 @@
         <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
@@ -10158,13 +10152,13 @@
         <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -10172,7 +10166,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
@@ -10186,13 +10180,13 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10200,13 +10194,13 @@
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -10220,7 +10214,7 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -10228,13 +10222,13 @@
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -10248,7 +10242,7 @@
         <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>17</v>
@@ -10259,7 +10253,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -10268,7 +10262,7 @@
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>16</v>
@@ -10282,13 +10276,13 @@
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -10296,13 +10290,13 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -10316,7 +10310,7 @@
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
@@ -10336,12 +10330,12 @@
         <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s">
         <v>25</v>
@@ -10350,7 +10344,7 @@
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
@@ -10364,7 +10358,7 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
@@ -10392,18 +10386,18 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B61" t="s">
         <v>25</v>
@@ -10426,7 +10420,7 @@
         <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>16</v>
@@ -10440,7 +10434,7 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
@@ -10454,13 +10448,13 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -10468,13 +10462,13 @@
         <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F65" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -10488,18 +10482,18 @@
         <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B69" t="s">
         <v>25</v>
@@ -10508,7 +10502,7 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>16</v>
@@ -10522,7 +10516,7 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
@@ -10536,13 +10530,13 @@
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -10550,7 +10544,7 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>17</v>
@@ -10561,13 +10555,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B74" t="s">
         <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>16</v>
@@ -10578,13 +10572,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -10637,7 +10631,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -10646,13 +10640,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10660,13 +10654,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -10680,7 +10674,7 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -10694,7 +10688,7 @@
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
@@ -10714,12 +10708,12 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -10728,13 +10722,13 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10748,13 +10742,13 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -10762,13 +10756,13 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -10776,13 +10770,13 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -10790,13 +10784,13 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -10804,7 +10798,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
@@ -10818,7 +10812,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -10832,13 +10826,13 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F17" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10852,7 +10846,7 @@
         <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -10866,13 +10860,13 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -10880,24 +10874,24 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -10908,13 +10902,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10928,7 +10922,7 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>17</v>
@@ -10939,7 +10933,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -10948,7 +10942,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
@@ -10959,7 +10953,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -10968,7 +10962,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -10982,7 +10976,7 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
@@ -10996,13 +10990,13 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11010,13 +11004,13 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -11024,7 +11018,7 @@
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
@@ -11035,24 +11029,24 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -11061,13 +11055,13 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -11075,7 +11069,7 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
@@ -11089,13 +11083,13 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8422" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E083D19C-DF10-49FC-871E-6F55888980BB}"/>
+  <xr:revisionPtr revIDLastSave="8436" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA027423-550C-4D35-88CA-F504FC4D08C5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="519">
   <si>
     <t>ROUND</t>
   </si>
@@ -1594,6 +1594,15 @@
   </si>
   <si>
     <t>6-2 2-6 6-3</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>6-2 0-6 6-4</t>
+  </si>
+  <si>
+    <t>Nastia Pavlyuchenkova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -2176,7 +2185,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2290,7 +2299,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2808,7 +2817,7 @@
                   <c:v>0.56097560975609762</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4223,7 +4232,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B1CD2067-AA7C-4818-80F8-C546C694AAA0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4302,9 +4311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4342,7 +4351,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4448,7 +4457,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4590,7 +4599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4686,7 +4695,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="C49" sqref="C49:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5653,10 +5662,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5664,9 +5673,9 @@
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5707,6 +5716,40 @@
       </c>
       <c r="F2" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>518</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5722,8 +5765,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5971,20 +6014,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="e">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5993,7 +6036,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6001,15 +6044,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.54042553191489362</v>
+        <v>0.53813559322033899</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6018,7 +6061,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>11.181818181818182</v>
+        <v>11.272727272727273</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6026,15 +6069,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>21.363636363636363</v>
+        <v>21.454545454545453</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>9.8181818181818183</v>
+        <v>9.9090909090909083</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.54042553191489362</v>
+        <v>0.53813559322033899</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8436" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA027423-550C-4D35-88CA-F504FC4D08C5}"/>
+  <xr:revisionPtr revIDLastSave="8453" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCF0C334-0C0E-41AD-99F2-75DFF562F4D7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="521">
   <si>
     <t>ROUND</t>
   </si>
@@ -1603,6 +1603,12 @@
   </si>
   <si>
     <t>Nastia Pavlyuchenkova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>2-6 7-6(1) 6-2</t>
+  </si>
+  <si>
+    <t>Liudmila Samsonova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -2185,7 +2191,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2299,7 +2305,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2817,7 +2823,7 @@
                   <c:v>0.56097560975609762</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5662,10 +5668,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5750,6 +5756,54 @@
       </c>
       <c r="F5" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>467</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>520</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -6014,20 +6068,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6036,7 +6090,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6044,15 +6098,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.53813559322033899</v>
+        <v>0.53781512605042014</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6061,7 +6115,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>11.272727272727273</v>
+        <v>11.363636363636363</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6069,15 +6123,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>21.454545454545453</v>
+        <v>21.636363636363637</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>9.9090909090909083</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.53813559322033899</v>
+        <v>0.53781512605042014</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8453" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCF0C334-0C0E-41AD-99F2-75DFF562F4D7}"/>
+  <xr:revisionPtr revIDLastSave="8468" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{589E135F-680D-4926-A321-6C82BD12A33C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="522">
   <si>
     <t>ROUND</t>
   </si>
@@ -1609,6 +1609,9 @@
   </si>
   <si>
     <t>Liudmila Samsonova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Bernarda Pera (USA)</t>
   </si>
 </sst>
 </file>
@@ -2191,7 +2194,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2823,7 +2826,7 @@
                   <c:v>0.56097560975609762</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4317,9 +4320,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4357,7 +4360,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4463,7 +4466,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4605,7 +4608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4701,7 +4704,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:C50"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5668,20 +5671,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" activeCellId="2" sqref="E4 E7:E8 E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5804,6 +5807,40 @@
       </c>
       <c r="F9" t="s">
         <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>521</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>486</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -5820,7 +5857,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6068,20 +6105,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6090,7 +6127,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6098,7 +6135,7 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
@@ -6106,7 +6143,7 @@
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.53781512605042014</v>
+        <v>0.53974895397489542</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6115,7 +6152,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>11.363636363636363</v>
+        <v>11.454545454545455</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6123,7 +6160,7 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>21.636363636363637</v>
+        <v>21.727272727272727</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
@@ -6131,7 +6168,7 @@
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.53781512605042014</v>
+        <v>0.53974895397489542</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8468" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{589E135F-680D-4926-A321-6C82BD12A33C}"/>
+  <xr:revisionPtr revIDLastSave="8489" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCFB0E18-E6BD-4059-9E33-3C7209F9DBA6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="524">
   <si>
     <t>ROUND</t>
   </si>
@@ -1612,6 +1612,12 @@
   </si>
   <si>
     <t>Bernarda Pera (USA)</t>
+  </si>
+  <si>
+    <t>3-6 6-3 7-5</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-2</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2200,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2308,7 +2314,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2826,7 +2832,7 @@
                   <c:v>0.56097560975609762</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5671,10 +5677,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" activeCellId="2" sqref="E4 E7:E8 E11"/>
+      <selection activeCell="E14" activeCellId="3" sqref="E4 E7:E8 E11 E14:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5843,6 +5849,68 @@
         <v>392</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>316</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>486</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -5857,7 +5925,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6105,20 +6173,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
         <v>4</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6127,7 +6195,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6135,15 +6203,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.53974895397489542</v>
+        <v>0.54132231404958675</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6152,7 +6220,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>11.454545454545455</v>
+        <v>11.545454545454545</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6160,15 +6228,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>21.727272727272727</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>10</v>
+        <v>10.090909090909092</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.53974895397489542</v>
+        <v>0.54132231404958675</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8489" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCFB0E18-E6BD-4059-9E33-3C7209F9DBA6}"/>
+  <xr:revisionPtr revIDLastSave="8501" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51B69E31-91AC-48D8-BC83-31A8FBBC1113}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="525">
   <si>
     <t>ROUND</t>
   </si>
@@ -1618,6 +1618,9 @@
   </si>
   <si>
     <t>7-6(2) 6-2</t>
+  </si>
+  <si>
+    <t>Mirra Andreeva (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -2200,7 +2203,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2314,7 +2317,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2832,7 +2835,7 @@
                   <c:v>0.56097560975609762</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5677,10 +5680,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" activeCellId="3" sqref="E4 E7:E8 E11 E14:E16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5897,7 +5900,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -5909,6 +5912,40 @@
       </c>
       <c r="F17" t="s">
         <v>523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>385</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>524</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6173,20 +6210,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6195,7 +6232,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6203,15 +6240,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.54132231404958675</v>
+        <v>0.53909465020576131</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6220,7 +6257,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>11.545454545454545</v>
+        <v>11.636363636363637</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6228,15 +6265,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>22</v>
+        <v>22.09090909090909</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>10.090909090909092</v>
+        <v>10.181818181818182</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.54132231404958675</v>
+        <v>0.53909465020576131</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8501" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51B69E31-91AC-48D8-BC83-31A8FBBC1113}"/>
+  <xr:revisionPtr revIDLastSave="8512" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04940F51-25D3-4107-AE14-6E8E74D205FB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="527">
   <si>
     <t>ROUND</t>
   </si>
@@ -1621,6 +1621,12 @@
   </si>
   <si>
     <t>Mirra Andreeva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-2 3-6 6-4</t>
+  </si>
+  <si>
+    <t>7-6(1) 6-3</t>
   </si>
 </sst>
 </file>
@@ -2203,7 +2209,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2317,7 +2323,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2835,7 +2841,7 @@
                   <c:v>0.56097560975609762</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.375</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5680,10 +5686,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E22" sqref="E22:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5948,6 +5954,40 @@
         <v>42</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>401</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>526</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -5962,7 +6002,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6210,20 +6250,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6232,7 +6272,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6240,15 +6280,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.53909465020576131</v>
+        <v>0.53688524590163933</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6257,7 +6297,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>11.636363636363637</v>
+        <v>11.727272727272727</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6265,15 +6305,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>22.09090909090909</v>
+        <v>22.181818181818183</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>10.181818181818182</v>
+        <v>10.272727272727273</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.53909465020576131</v>
+        <v>0.53688524590163933</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8512" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04940F51-25D3-4107-AE14-6E8E74D205FB}"/>
+  <xr:revisionPtr revIDLastSave="8524" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D9DF03A-7AAE-400E-9321-DF9460C01D3D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="530">
   <si>
     <t>ROUND</t>
   </si>
@@ -1627,6 +1627,15 @@
   </si>
   <si>
     <t>7-6(1) 6-3</t>
+  </si>
+  <si>
+    <t>INTERNATIONAUX DE STRASBOURG</t>
+  </si>
+  <si>
+    <t>5-7 6-1 6-0</t>
+  </si>
+  <si>
+    <t>5-7 6-3 6-2</t>
   </si>
 </sst>
 </file>
@@ -2209,7 +2218,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,7 +2332,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2841,7 +2850,7 @@
                   <c:v>0.56097560975609762</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4330,10 +4339,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -5686,15 +5691,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E23"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
@@ -5986,6 +5991,40 @@
       </c>
       <c r="F23" t="s">
         <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>527</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>452</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -6250,20 +6289,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6272,7 +6311,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6280,15 +6319,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.53688524590163933</v>
+        <v>0.53469387755102038</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6297,7 +6336,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>11.727272727272727</v>
+        <v>11.818181818181818</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6305,15 +6344,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>22.181818181818183</v>
+        <v>22.272727272727273</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>10.272727272727273</v>
+        <v>10.363636363636363</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.53688524590163933</v>
+        <v>0.53469387755102049</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8524" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D9DF03A-7AAE-400E-9321-DF9460C01D3D}"/>
+  <xr:revisionPtr revIDLastSave="8546" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08608F18-206B-465D-BED5-92ACC8B872D2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="534">
   <si>
     <t>ROUND</t>
   </si>
@@ -1636,6 +1636,18 @@
   </si>
   <si>
     <t>5-7 6-3 6-2</t>
+  </si>
+  <si>
+    <t>Rebeka Masarova (SPAIN)</t>
+  </si>
+  <si>
+    <t>0-6 6-1 6-4</t>
+  </si>
+  <si>
+    <t>Katie Volynets (USA)</t>
+  </si>
+  <si>
+    <t>Olga Danilović (SERBIA)</t>
   </si>
 </sst>
 </file>
@@ -2218,7 +2230,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2332,7 +2344,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2850,7 +2862,7 @@
                   <c:v>0.56097560975609762</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4339,6 +4351,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4645,17 +4661,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4675,7 +4691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -4695,7 +4711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4723,21 +4739,21 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4757,7 +4773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -4777,7 +4793,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4791,7 +4807,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -4805,7 +4821,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -4825,7 +4841,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>75</v>
       </c>
@@ -4839,7 +4855,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -4853,7 +4869,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>472</v>
       </c>
@@ -4873,7 +4889,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -4887,7 +4903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -4901,7 +4917,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -4915,7 +4931,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -4935,7 +4951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -4955,7 +4971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -4969,7 +4985,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4983,7 +4999,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -4997,7 +5013,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -5017,7 +5033,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>75</v>
       </c>
@@ -5031,7 +5047,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -5045,7 +5061,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -5059,7 +5075,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>394</v>
       </c>
@@ -5076,7 +5092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>486</v>
       </c>
@@ -5087,7 +5103,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>385</v>
       </c>
@@ -5107,7 +5123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>27</v>
       </c>
@@ -5121,7 +5137,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -5135,7 +5151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>75</v>
       </c>
@@ -5149,7 +5165,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -5169,7 +5185,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>75</v>
       </c>
@@ -5183,7 +5199,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5197,7 +5213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -5211,7 +5227,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -5231,7 +5247,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>75</v>
       </c>
@@ -5245,7 +5261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>386</v>
       </c>
@@ -5265,7 +5281,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -5279,7 +5295,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -5293,7 +5309,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -5313,7 +5329,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>75</v>
       </c>
@@ -5327,7 +5343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -5341,7 +5357,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -5355,7 +5371,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -5369,7 +5385,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -5383,7 +5399,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -5397,7 +5413,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>498</v>
       </c>
@@ -5417,7 +5433,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -5431,7 +5447,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -5445,7 +5461,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -5465,7 +5481,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -5479,7 +5495,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -5493,7 +5509,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>18</v>
       </c>
@@ -5507,7 +5523,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -5527,7 +5543,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>75</v>
       </c>
@@ -5541,7 +5557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5555,7 +5571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>14</v>
       </c>
@@ -5569,7 +5585,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>18</v>
       </c>
@@ -5583,7 +5599,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>508</v>
       </c>
@@ -5603,7 +5619,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>510</v>
       </c>
@@ -5623,7 +5639,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>511</v>
       </c>
@@ -5637,7 +5653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>511</v>
       </c>
@@ -5651,7 +5667,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>394</v>
       </c>
@@ -5668,7 +5684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>139</v>
       </c>
@@ -5691,23 +5707,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" activeCellId="7" sqref="E4 E7:E8 E11 E14:E16 E19 E22 E25 E28:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5727,7 +5743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -5747,7 +5763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>516</v>
       </c>
@@ -5767,7 +5783,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -5781,7 +5797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -5801,7 +5817,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -5815,7 +5831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -5829,7 +5845,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -5849,7 +5865,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -5863,7 +5879,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -5883,7 +5899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -5897,7 +5913,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -5911,7 +5927,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -5925,7 +5941,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>385</v>
       </c>
@@ -5945,7 +5961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -5959,7 +5975,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -5979,7 +5995,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -5993,7 +6009,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>527</v>
       </c>
@@ -6013,7 +6029,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>18</v>
       </c>
@@ -6025,6 +6041,82 @@
       </c>
       <c r="F26" t="s">
         <v>529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>530</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>532</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>533</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>348</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -6041,20 +6133,20 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6074,7 +6166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -6095,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -6116,7 +6208,7 @@
         <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6137,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6158,7 +6250,7 @@
         <v>0.76470588235294112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6179,7 +6271,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6200,7 +6292,7 @@
         <v>0.68965517241379315</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6221,7 +6313,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6242,7 +6334,7 @@
         <v>0.44117647058823528</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6263,7 +6355,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6284,34 +6376,34 @@
         <v>0.56097560975609762</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6319,24 +6411,24 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.53469387755102038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5381526104417671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>11.818181818181818</v>
+        <v>11.909090909090908</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6344,15 +6436,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>22.272727272727273</v>
+        <v>22.636363636363637</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>10.363636363636363</v>
+        <v>10.454545454545455</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.53469387755102049</v>
+        <v>0.5381526104417671</v>
       </c>
     </row>
   </sheetData>
@@ -6381,17 +6473,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6411,7 +6503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -6431,7 +6523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -6445,7 +6537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -6459,7 +6551,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -6473,7 +6565,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6487,7 +6579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -6507,7 +6599,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>27</v>
       </c>
@@ -6521,7 +6613,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>34</v>
       </c>
@@ -6535,7 +6627,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>169</v>
       </c>
@@ -6555,7 +6647,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -6569,7 +6661,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -6583,7 +6675,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -6597,7 +6689,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -6611,7 +6703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>175</v>
       </c>
@@ -6631,7 +6723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -6645,7 +6737,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -6659,7 +6751,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -6673,7 +6765,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -6693,7 +6785,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -6707,7 +6799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -6727,7 +6819,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6741,7 +6833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -6755,7 +6847,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>185</v>
       </c>
@@ -6775,7 +6867,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6789,7 +6881,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -6803,7 +6895,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -6835,17 +6927,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6865,7 +6957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -6885,7 +6977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -6905,7 +6997,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -6925,7 +7017,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -6939,7 +7031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -6959,7 +7051,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -6979,7 +7071,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -6993,7 +7085,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -7007,7 +7099,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -7021,7 +7113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -7035,7 +7127,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>201</v>
       </c>
@@ -7055,7 +7147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>27</v>
       </c>
@@ -7069,7 +7161,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>164</v>
       </c>
@@ -7089,7 +7181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7103,7 +7195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>205</v>
       </c>
@@ -7123,7 +7215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -7155,17 +7247,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7185,7 +7277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>223</v>
       </c>
@@ -7205,7 +7297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -7219,7 +7311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -7233,7 +7325,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -7247,7 +7339,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -7261,7 +7353,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -7281,7 +7373,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -7295,7 +7387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -7309,7 +7401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -7323,7 +7415,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7337,7 +7429,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -7357,7 +7449,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -7371,7 +7463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -7385,7 +7477,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -7399,7 +7491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>21</v>
       </c>
@@ -7413,7 +7505,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -7433,7 +7525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7447,7 +7539,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -7461,7 +7553,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -7481,7 +7573,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -7495,7 +7587,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>18</v>
       </c>
@@ -7509,7 +7601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -7523,7 +7615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -7537,7 +7629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>239</v>
       </c>
@@ -7557,7 +7649,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -7571,7 +7663,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -7585,7 +7677,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -7599,7 +7691,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>242</v>
       </c>
@@ -7619,7 +7711,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>27</v>
       </c>
@@ -7633,7 +7725,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>34</v>
       </c>
@@ -7647,7 +7739,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -7661,7 +7753,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -7675,7 +7767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -7689,7 +7781,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -7703,7 +7795,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>21</v>
       </c>
@@ -7717,7 +7809,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -7734,7 +7826,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>129</v>
       </c>
@@ -7745,7 +7837,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>164</v>
       </c>
@@ -7765,7 +7857,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -7779,7 +7871,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>249</v>
       </c>
@@ -7799,7 +7891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -7813,7 +7905,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>18</v>
       </c>
@@ -7827,7 +7919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -7841,7 +7933,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -7855,7 +7947,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -7875,7 +7967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>27</v>
       </c>
@@ -7889,7 +7981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>34</v>
       </c>
@@ -7903,7 +7995,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>37</v>
       </c>
@@ -7917,7 +8009,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -7931,7 +8023,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>246</v>
       </c>
@@ -7951,7 +8043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>27</v>
       </c>
@@ -7965,7 +8057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>34</v>
       </c>
@@ -7979,7 +8071,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -7993,7 +8085,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -8013,7 +8105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -8033,7 +8125,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>259</v>
       </c>
@@ -8053,7 +8145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>14</v>
       </c>
@@ -8067,7 +8159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>18</v>
       </c>
@@ -8081,7 +8173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -8095,7 +8187,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>21</v>
       </c>
@@ -8109,7 +8201,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -8129,7 +8221,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>260</v>
       </c>
@@ -8149,7 +8241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>14</v>
       </c>
@@ -8181,17 +8273,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8211,7 +8303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -8231,7 +8323,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -8251,7 +8343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -8265,7 +8357,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -8285,7 +8377,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>75</v>
       </c>
@@ -8299,7 +8391,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>285</v>
       </c>
@@ -8319,7 +8411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>27</v>
       </c>
@@ -8333,7 +8425,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -8347,7 +8439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8361,7 +8453,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -8381,7 +8473,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -8401,7 +8493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -8415,7 +8507,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8429,7 +8521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -8443,7 +8535,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -8463,7 +8555,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>278</v>
       </c>
@@ -8483,7 +8575,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -8497,7 +8589,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -8517,7 +8609,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>27</v>
       </c>
@@ -8531,7 +8623,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -8545,7 +8637,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -8559,7 +8651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -8573,7 +8665,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -8593,7 +8685,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>279</v>
       </c>
@@ -8613,7 +8705,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -8633,7 +8725,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -8653,7 +8745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>280</v>
       </c>
@@ -8673,7 +8765,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -8687,7 +8779,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>281</v>
       </c>
@@ -8707,7 +8799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -8721,7 +8813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>18</v>
       </c>
@@ -8735,7 +8827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -8749,7 +8841,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -8769,7 +8861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -8789,7 +8881,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -8809,7 +8901,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -8823,7 +8915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -8837,7 +8929,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -8851,7 +8943,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -8871,7 +8963,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>27</v>
       </c>
@@ -8885,7 +8977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -8974,17 +9066,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9004,7 +9096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -9024,7 +9116,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>75</v>
       </c>
@@ -9038,7 +9130,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>302</v>
       </c>
@@ -9058,7 +9150,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -9072,7 +9164,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>18</v>
       </c>
@@ -9086,7 +9178,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -9100,7 +9192,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -9114,7 +9206,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -9134,7 +9226,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -9148,7 +9240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -9162,7 +9254,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -9176,7 +9268,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -9190,7 +9282,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -9210,7 +9302,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -9224,7 +9316,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -9238,7 +9330,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -9252,7 +9344,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>18</v>
       </c>
@@ -9266,7 +9358,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -9283,7 +9375,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>318</v>
       </c>
@@ -9294,7 +9386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -9314,7 +9406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -9328,7 +9420,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -9342,7 +9434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -9356,7 +9448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>21</v>
       </c>
@@ -9370,7 +9462,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -9390,7 +9482,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -9404,7 +9496,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -9418,7 +9510,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -9432,7 +9524,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -9452,7 +9544,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -9466,7 +9558,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -9480,7 +9572,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -9494,7 +9586,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>18</v>
       </c>
@@ -9508,7 +9600,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -9522,7 +9614,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -9536,7 +9628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -9556,7 +9648,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -9570,7 +9662,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -9634,17 +9726,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9664,7 +9756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>334</v>
       </c>
@@ -9684,7 +9776,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9698,7 +9790,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9712,7 +9804,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -9732,7 +9824,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>335</v>
       </c>
@@ -9752,7 +9844,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -9772,7 +9864,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -9786,7 +9878,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>285</v>
       </c>
@@ -9806,7 +9898,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>336</v>
       </c>
@@ -9826,7 +9918,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -9846,7 +9938,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -9866,7 +9958,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>75</v>
       </c>
@@ -9880,7 +9972,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -9900,7 +9992,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -9914,7 +10006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -9928,7 +10020,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -9942,7 +10034,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -9956,7 +10048,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -9993,17 +10085,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10023,7 +10115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>382</v>
       </c>
@@ -10043,7 +10135,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>383</v>
       </c>
@@ -10063,7 +10155,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -10077,7 +10169,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>18</v>
       </c>
@@ -10091,7 +10183,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -10105,7 +10197,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -10125,7 +10217,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>75</v>
       </c>
@@ -10139,7 +10231,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -10153,7 +10245,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -10167,7 +10259,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -10187,7 +10279,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -10201,7 +10293,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -10221,7 +10313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -10235,7 +10327,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -10249,7 +10341,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -10269,7 +10361,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -10283,7 +10375,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>385</v>
       </c>
@@ -10303,7 +10395,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -10323,7 +10415,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -10343,7 +10435,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>75</v>
       </c>
@@ -10357,7 +10449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -10371,7 +10463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -10385,7 +10477,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>386</v>
       </c>
@@ -10405,7 +10497,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -10425,7 +10517,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -10445,7 +10537,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -10459,7 +10551,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>387</v>
       </c>
@@ -10479,7 +10571,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -10493,7 +10585,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -10507,7 +10599,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>18</v>
       </c>
@@ -10521,7 +10613,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -10535,7 +10627,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>21</v>
       </c>
@@ -10549,7 +10641,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -10569,7 +10661,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>388</v>
       </c>
@@ -10589,7 +10681,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -10603,7 +10695,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -10617,7 +10709,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -10637,7 +10729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -10651,7 +10743,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>389</v>
       </c>
@@ -10671,7 +10763,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -10685,7 +10777,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -10699,7 +10791,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -10713,7 +10805,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>390</v>
       </c>
@@ -10733,7 +10825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -10747,7 +10839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -10761,7 +10853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>18</v>
       </c>
@@ -10775,7 +10867,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -10789,7 +10881,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -10809,7 +10901,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>393</v>
       </c>
@@ -10829,7 +10921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>14</v>
       </c>
@@ -10843,7 +10935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>18</v>
       </c>
@@ -10857,7 +10949,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>20</v>
       </c>
@@ -10871,7 +10963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>394</v>
       </c>
@@ -10888,7 +10980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>425</v>
       </c>
@@ -10917,17 +11009,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10947,7 +11039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>441</v>
       </c>
@@ -10967,7 +11059,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -10981,7 +11073,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -11001,7 +11093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>75</v>
       </c>
@@ -11015,7 +11107,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -11029,7 +11121,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>444</v>
       </c>
@@ -11049,7 +11141,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -11069,7 +11161,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -11083,7 +11175,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -11097,7 +11189,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -11111,7 +11203,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -11125,7 +11217,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -11139,7 +11231,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -11153,7 +11245,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -11173,7 +11265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -11187,7 +11279,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -11201,7 +11293,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>394</v>
       </c>
@@ -11218,7 +11310,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>454</v>
       </c>
@@ -11229,7 +11321,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -11249,7 +11341,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>455</v>
       </c>
@@ -11269,7 +11361,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>457</v>
       </c>
@@ -11289,7 +11381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -11303,7 +11395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -11317,7 +11409,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -11331,7 +11423,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>21</v>
       </c>
@@ -11345,7 +11437,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>394</v>
       </c>
@@ -11362,7 +11454,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>463</v>
       </c>
@@ -11382,7 +11474,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -11396,7 +11488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8546" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08608F18-206B-465D-BED5-92ACC8B872D2}"/>
+  <xr:revisionPtr revIDLastSave="8557" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EC29D3C-AFA0-4FD4-85BE-954298FA8D00}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="536">
   <si>
     <t>ROUND</t>
   </si>
@@ -1648,6 +1648,12 @@
   </si>
   <si>
     <t>Olga Danilović (SERBIA)</t>
+  </si>
+  <si>
+    <t>Anna Kalinskaya (RUSSIA)</t>
+  </si>
+  <si>
+    <t>5-5 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -2230,7 +2236,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2344,7 +2350,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2862,7 +2868,7 @@
                   <c:v>0.56097560975609762</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4351,10 +4357,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4661,17 +4663,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4691,7 +4693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -4711,7 +4713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4743,17 +4745,17 @@
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4773,7 +4775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -4793,7 +4795,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4807,7 +4809,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -4821,7 +4823,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -4841,7 +4843,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>75</v>
       </c>
@@ -4855,7 +4857,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -4869,7 +4871,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>472</v>
       </c>
@@ -4889,7 +4891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -4903,7 +4905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -4917,7 +4919,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -4931,7 +4933,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -4951,7 +4953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -4971,7 +4973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -4985,7 +4987,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -4999,7 +5001,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -5013,7 +5015,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -5033,7 +5035,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>75</v>
       </c>
@@ -5047,7 +5049,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -5061,7 +5063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -5075,7 +5077,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>394</v>
       </c>
@@ -5092,7 +5094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>486</v>
       </c>
@@ -5103,7 +5105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>385</v>
       </c>
@@ -5123,7 +5125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>27</v>
       </c>
@@ -5137,7 +5139,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -5151,7 +5153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>75</v>
       </c>
@@ -5165,7 +5167,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -5185,7 +5187,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>75</v>
       </c>
@@ -5199,7 +5201,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5213,7 +5215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -5227,7 +5229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -5247,7 +5249,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>75</v>
       </c>
@@ -5261,7 +5263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>386</v>
       </c>
@@ -5281,7 +5283,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -5295,7 +5297,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -5309,7 +5311,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -5329,7 +5331,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>75</v>
       </c>
@@ -5343,7 +5345,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -5357,7 +5359,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -5371,7 +5373,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -5385,7 +5387,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -5399,7 +5401,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>498</v>
       </c>
@@ -5433,7 +5435,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -5447,7 +5449,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -5461,7 +5463,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -5481,7 +5483,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -5495,7 +5497,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -5509,7 +5511,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>18</v>
       </c>
@@ -5523,7 +5525,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -5543,7 +5545,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>75</v>
       </c>
@@ -5557,7 +5559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5571,7 +5573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>14</v>
       </c>
@@ -5585,7 +5587,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>18</v>
       </c>
@@ -5599,7 +5601,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>508</v>
       </c>
@@ -5619,7 +5621,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>510</v>
       </c>
@@ -5639,7 +5641,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>511</v>
       </c>
@@ -5653,7 +5655,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>511</v>
       </c>
@@ -5667,7 +5669,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>394</v>
       </c>
@@ -5684,7 +5686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>139</v>
       </c>
@@ -5707,23 +5709,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" activeCellId="7" sqref="E4 E7:E8 E11 E14:E16 E19 E22 E25 E28:E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5743,7 +5745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -5763,7 +5765,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>516</v>
       </c>
@@ -5783,7 +5785,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -5797,7 +5799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -5817,7 +5819,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -5831,7 +5833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -5845,7 +5847,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -5865,7 +5867,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -5879,7 +5881,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -5899,7 +5901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -5913,7 +5915,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -5927,7 +5929,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -5941,7 +5943,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>385</v>
       </c>
@@ -5961,7 +5963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -5975,7 +5977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -5995,7 +5997,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -6009,7 +6011,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>527</v>
       </c>
@@ -6029,7 +6031,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>18</v>
       </c>
@@ -6043,7 +6045,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -6063,7 +6065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>75</v>
       </c>
@@ -6077,7 +6079,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -6091,7 +6093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6105,7 +6107,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -6117,6 +6119,40 @@
       </c>
       <c r="F32" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>386</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>530</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>534</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -6133,20 +6169,20 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6166,7 +6202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -6187,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -6208,7 +6244,7 @@
         <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6229,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6250,7 +6286,7 @@
         <v>0.76470588235294112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6271,7 +6307,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6292,7 +6328,7 @@
         <v>0.68965517241379315</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6313,7 +6349,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6334,7 +6370,7 @@
         <v>0.44117647058823528</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6355,7 +6391,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6376,34 +6412,34 @@
         <v>0.56097560975609762</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6411,24 +6447,24 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.5381526104417671</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>11.909090909090908</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6436,15 +6472,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>22.636363636363637</v>
+        <v>22.727272727272727</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>10.454545454545455</v>
+        <v>10.545454545454545</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.5381526104417671</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -6473,17 +6509,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6503,7 +6539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -6523,7 +6559,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -6537,7 +6573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -6551,7 +6587,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -6565,7 +6601,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6579,7 +6615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -6599,7 +6635,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>27</v>
       </c>
@@ -6613,7 +6649,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>34</v>
       </c>
@@ -6627,7 +6663,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>169</v>
       </c>
@@ -6647,7 +6683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -6661,7 +6697,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -6675,7 +6711,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -6689,7 +6725,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -6703,7 +6739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>175</v>
       </c>
@@ -6723,7 +6759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -6737,7 +6773,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -6751,7 +6787,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -6765,7 +6801,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -6785,7 +6821,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -6799,7 +6835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -6819,7 +6855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6833,7 +6869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -6847,7 +6883,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>185</v>
       </c>
@@ -6867,7 +6903,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6881,7 +6917,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -6895,7 +6931,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -6927,17 +6963,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6957,7 +6993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -6977,7 +7013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -6997,7 +7033,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -7017,7 +7053,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -7031,7 +7067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -7051,7 +7087,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -7071,7 +7107,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -7085,7 +7121,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -7099,7 +7135,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -7113,7 +7149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -7127,7 +7163,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>201</v>
       </c>
@@ -7147,7 +7183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>27</v>
       </c>
@@ -7161,7 +7197,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>164</v>
       </c>
@@ -7181,7 +7217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7195,7 +7231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>205</v>
       </c>
@@ -7215,7 +7251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -7247,17 +7283,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7277,7 +7313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>223</v>
       </c>
@@ -7297,7 +7333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -7311,7 +7347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -7325,7 +7361,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -7339,7 +7375,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -7353,7 +7389,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -7373,7 +7409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -7387,7 +7423,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -7401,7 +7437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -7415,7 +7451,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7429,7 +7465,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -7449,7 +7485,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -7463,7 +7499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -7477,7 +7513,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -7491,7 +7527,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>21</v>
       </c>
@@ -7505,7 +7541,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -7525,7 +7561,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7539,7 +7575,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -7553,7 +7589,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -7573,7 +7609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -7587,7 +7623,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>18</v>
       </c>
@@ -7601,7 +7637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -7615,7 +7651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -7629,7 +7665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>239</v>
       </c>
@@ -7649,7 +7685,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -7663,7 +7699,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -7677,7 +7713,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -7691,7 +7727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>242</v>
       </c>
@@ -7711,7 +7747,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>27</v>
       </c>
@@ -7725,7 +7761,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>34</v>
       </c>
@@ -7739,7 +7775,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -7753,7 +7789,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -7767,7 +7803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -7781,7 +7817,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -7795,7 +7831,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>21</v>
       </c>
@@ -7809,7 +7845,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -7826,7 +7862,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>129</v>
       </c>
@@ -7837,7 +7873,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>164</v>
       </c>
@@ -7857,7 +7893,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -7871,7 +7907,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>249</v>
       </c>
@@ -7891,7 +7927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -7905,7 +7941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>18</v>
       </c>
@@ -7919,7 +7955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -7933,7 +7969,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -7947,7 +7983,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -7967,7 +8003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>27</v>
       </c>
@@ -7981,7 +8017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>34</v>
       </c>
@@ -7995,7 +8031,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>37</v>
       </c>
@@ -8009,7 +8045,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -8023,7 +8059,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>246</v>
       </c>
@@ -8043,7 +8079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>27</v>
       </c>
@@ -8057,7 +8093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>34</v>
       </c>
@@ -8071,7 +8107,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -8085,7 +8121,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -8105,7 +8141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -8125,7 +8161,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>259</v>
       </c>
@@ -8145,7 +8181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>14</v>
       </c>
@@ -8159,7 +8195,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>18</v>
       </c>
@@ -8173,7 +8209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -8187,7 +8223,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>21</v>
       </c>
@@ -8201,7 +8237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -8221,7 +8257,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>260</v>
       </c>
@@ -8241,7 +8277,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>14</v>
       </c>
@@ -8273,17 +8309,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8303,7 +8339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -8323,7 +8359,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -8343,7 +8379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -8357,7 +8393,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -8377,7 +8413,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>75</v>
       </c>
@@ -8391,7 +8427,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>285</v>
       </c>
@@ -8411,7 +8447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>27</v>
       </c>
@@ -8425,7 +8461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -8439,7 +8475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8453,7 +8489,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -8473,7 +8509,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -8493,7 +8529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -8507,7 +8543,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8521,7 +8557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -8535,7 +8571,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -8555,7 +8591,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>278</v>
       </c>
@@ -8575,7 +8611,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -8589,7 +8625,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -8609,7 +8645,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>27</v>
       </c>
@@ -8623,7 +8659,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -8637,7 +8673,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -8651,7 +8687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -8665,7 +8701,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -8685,7 +8721,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>279</v>
       </c>
@@ -8705,7 +8741,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -8725,7 +8761,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -8745,7 +8781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>280</v>
       </c>
@@ -8765,7 +8801,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -8779,7 +8815,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>281</v>
       </c>
@@ -8799,7 +8835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -8813,7 +8849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>18</v>
       </c>
@@ -8827,7 +8863,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -8841,7 +8877,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -8861,7 +8897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -8881,7 +8917,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -8901,7 +8937,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -8915,7 +8951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -8929,7 +8965,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -8943,7 +8979,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -8963,7 +8999,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>27</v>
       </c>
@@ -8977,7 +9013,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -9066,17 +9102,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9096,7 +9132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -9116,7 +9152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>75</v>
       </c>
@@ -9130,7 +9166,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>302</v>
       </c>
@@ -9150,7 +9186,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -9164,7 +9200,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>18</v>
       </c>
@@ -9178,7 +9214,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -9192,7 +9228,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -9206,7 +9242,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -9226,7 +9262,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -9240,7 +9276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -9254,7 +9290,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -9268,7 +9304,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -9282,7 +9318,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -9302,7 +9338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -9316,7 +9352,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -9330,7 +9366,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -9344,7 +9380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>18</v>
       </c>
@@ -9358,7 +9394,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -9375,7 +9411,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>318</v>
       </c>
@@ -9386,7 +9422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -9406,7 +9442,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -9420,7 +9456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -9434,7 +9470,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -9448,7 +9484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>21</v>
       </c>
@@ -9462,7 +9498,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -9482,7 +9518,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -9496,7 +9532,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -9510,7 +9546,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -9524,7 +9560,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -9544,7 +9580,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -9558,7 +9594,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -9572,7 +9608,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -9586,7 +9622,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>18</v>
       </c>
@@ -9600,7 +9636,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -9614,7 +9650,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -9628,7 +9664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -9648,7 +9684,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -9662,7 +9698,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -9726,17 +9762,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9756,7 +9792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>334</v>
       </c>
@@ -9776,7 +9812,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9790,7 +9826,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9804,7 +9840,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -9824,7 +9860,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>335</v>
       </c>
@@ -9844,7 +9880,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -9864,7 +9900,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -9878,7 +9914,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>285</v>
       </c>
@@ -9898,7 +9934,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>336</v>
       </c>
@@ -9918,7 +9954,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -9938,7 +9974,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -9958,7 +9994,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>75</v>
       </c>
@@ -9972,7 +10008,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -9992,7 +10028,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -10006,7 +10042,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -10020,7 +10056,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -10034,7 +10070,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -10048,7 +10084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -10085,17 +10121,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10115,7 +10151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>382</v>
       </c>
@@ -10135,7 +10171,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>383</v>
       </c>
@@ -10155,7 +10191,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -10169,7 +10205,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>18</v>
       </c>
@@ -10183,7 +10219,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -10197,7 +10233,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -10217,7 +10253,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>75</v>
       </c>
@@ -10231,7 +10267,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -10245,7 +10281,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -10259,7 +10295,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -10279,7 +10315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -10293,7 +10329,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -10313,7 +10349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -10327,7 +10363,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -10341,7 +10377,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -10361,7 +10397,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -10375,7 +10411,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>385</v>
       </c>
@@ -10395,7 +10431,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -10415,7 +10451,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -10435,7 +10471,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>75</v>
       </c>
@@ -10449,7 +10485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -10463,7 +10499,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -10477,7 +10513,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>386</v>
       </c>
@@ -10497,7 +10533,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -10517,7 +10553,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -10537,7 +10573,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -10551,7 +10587,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>387</v>
       </c>
@@ -10571,7 +10607,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -10585,7 +10621,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -10599,7 +10635,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>18</v>
       </c>
@@ -10613,7 +10649,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -10627,7 +10663,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>21</v>
       </c>
@@ -10641,7 +10677,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -10661,7 +10697,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>388</v>
       </c>
@@ -10681,7 +10717,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -10695,7 +10731,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -10709,7 +10745,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -10729,7 +10765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -10743,7 +10779,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>389</v>
       </c>
@@ -10763,7 +10799,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -10777,7 +10813,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -10791,7 +10827,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -10805,7 +10841,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>390</v>
       </c>
@@ -10825,7 +10861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -10839,7 +10875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -10853,7 +10889,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>18</v>
       </c>
@@ -10867,7 +10903,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -10881,7 +10917,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -10901,7 +10937,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>393</v>
       </c>
@@ -10921,7 +10957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>14</v>
       </c>
@@ -10935,7 +10971,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>18</v>
       </c>
@@ -10949,7 +10985,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>20</v>
       </c>
@@ -10963,7 +10999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>394</v>
       </c>
@@ -10980,7 +11016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>425</v>
       </c>
@@ -11009,17 +11045,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11039,7 +11075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>441</v>
       </c>
@@ -11059,7 +11095,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -11073,7 +11109,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -11093,7 +11129,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>75</v>
       </c>
@@ -11107,7 +11143,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -11121,7 +11157,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>444</v>
       </c>
@@ -11141,7 +11177,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -11161,7 +11197,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -11175,7 +11211,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -11189,7 +11225,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -11203,7 +11239,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -11217,7 +11253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -11231,7 +11267,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -11245,7 +11281,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -11265,7 +11301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -11279,7 +11315,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -11293,7 +11329,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>394</v>
       </c>
@@ -11310,7 +11346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>454</v>
       </c>
@@ -11321,7 +11357,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -11341,7 +11377,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>455</v>
       </c>
@@ -11361,7 +11397,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>457</v>
       </c>
@@ -11381,7 +11417,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -11395,7 +11431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -11409,7 +11445,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -11423,7 +11459,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>21</v>
       </c>
@@ -11437,7 +11473,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>394</v>
       </c>
@@ -11454,7 +11490,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>463</v>
       </c>
@@ -11474,7 +11510,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -11488,7 +11524,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8557" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EC29D3C-AFA0-4FD4-85BE-954298FA8D00}"/>
+  <xr:revisionPtr revIDLastSave="8566" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{389508AD-E4FE-4B27-8043-7FFFFA166AF3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="537">
   <si>
     <t>ROUND</t>
   </si>
@@ -1654,6 +1654,9 @@
   </si>
   <si>
     <t>5-5 RETIRED</t>
+  </si>
+  <si>
+    <t>Jéssica Bouzas Maneiro (SPAIN)</t>
   </si>
 </sst>
 </file>
@@ -2350,7 +2353,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2868,7 +2871,7 @@
                   <c:v>0.56097560975609762</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4357,6 +4360,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4663,17 +4670,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4693,7 +4700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -4713,7 +4720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4745,17 +4752,17 @@
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4775,7 +4782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -4795,7 +4802,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4809,7 +4816,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -4823,7 +4830,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -4843,7 +4850,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>75</v>
       </c>
@@ -4857,7 +4864,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -4871,7 +4878,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>472</v>
       </c>
@@ -4891,7 +4898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -4905,7 +4912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -4919,7 +4926,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -4933,7 +4940,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -4953,7 +4960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -4973,7 +4980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -4987,7 +4994,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5001,7 +5008,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -5015,7 +5022,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -5035,7 +5042,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>75</v>
       </c>
@@ -5049,7 +5056,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -5063,7 +5070,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -5077,7 +5084,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>394</v>
       </c>
@@ -5094,7 +5101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>486</v>
       </c>
@@ -5105,7 +5112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>385</v>
       </c>
@@ -5125,7 +5132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>27</v>
       </c>
@@ -5139,7 +5146,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -5153,7 +5160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>75</v>
       </c>
@@ -5167,7 +5174,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -5187,7 +5194,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>75</v>
       </c>
@@ -5201,7 +5208,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5215,7 +5222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -5229,7 +5236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -5249,7 +5256,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>75</v>
       </c>
@@ -5263,7 +5270,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>386</v>
       </c>
@@ -5283,7 +5290,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -5297,7 +5304,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -5311,7 +5318,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -5331,7 +5338,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>75</v>
       </c>
@@ -5345,7 +5352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -5359,7 +5366,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -5373,7 +5380,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -5387,7 +5394,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -5401,7 +5408,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -5415,7 +5422,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>498</v>
       </c>
@@ -5435,7 +5442,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -5449,7 +5456,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -5463,7 +5470,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -5483,7 +5490,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -5497,7 +5504,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -5511,7 +5518,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>18</v>
       </c>
@@ -5525,7 +5532,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -5545,7 +5552,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>75</v>
       </c>
@@ -5559,7 +5566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5573,7 +5580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>14</v>
       </c>
@@ -5587,7 +5594,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>18</v>
       </c>
@@ -5601,7 +5608,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>508</v>
       </c>
@@ -5621,7 +5628,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>510</v>
       </c>
@@ -5641,7 +5648,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>511</v>
       </c>
@@ -5655,7 +5662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>511</v>
       </c>
@@ -5669,7 +5676,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>394</v>
       </c>
@@ -5686,7 +5693,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>139</v>
       </c>
@@ -5709,23 +5716,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5745,7 +5752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -5765,7 +5772,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>516</v>
       </c>
@@ -5785,7 +5792,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -5799,7 +5806,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -5819,7 +5826,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -5833,7 +5840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -5847,7 +5854,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -5867,7 +5874,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -5881,7 +5888,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -5901,7 +5908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -5915,7 +5922,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -5929,7 +5936,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -5943,7 +5950,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>385</v>
       </c>
@@ -5963,7 +5970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -5977,7 +5984,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -5997,7 +6004,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -6011,7 +6018,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>527</v>
       </c>
@@ -6031,7 +6038,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>18</v>
       </c>
@@ -6045,7 +6052,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -6065,7 +6072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>75</v>
       </c>
@@ -6079,7 +6086,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -6093,7 +6100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6107,7 +6114,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -6121,7 +6128,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>386</v>
       </c>
@@ -6141,7 +6148,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -6153,6 +6160,26 @@
       </c>
       <c r="F35" t="s">
         <v>535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>536</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -6169,20 +6196,20 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6202,7 +6229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -6223,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -6244,7 +6271,7 @@
         <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6265,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6286,7 +6313,7 @@
         <v>0.76470588235294112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6307,7 +6334,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6328,7 +6355,7 @@
         <v>0.68965517241379315</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6349,7 +6376,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6370,7 +6397,7 @@
         <v>0.44117647058823528</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6391,7 +6418,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6412,12 +6439,12 @@
         <v>0.56097560975609762</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -6426,20 +6453,20 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6451,20 +6478,20 @@
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F13" s="3">
         <f>(D13-E13)/D13</f>
-        <v>0.53600000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.53200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>12</v>
+        <v>12.090909090909092</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6476,11 +6503,11 @@
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>10.545454545454545</v>
+        <v>10.636363636363637</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.53600000000000003</v>
+        <v>0.53199999999999992</v>
       </c>
     </row>
   </sheetData>
@@ -6509,17 +6536,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6539,7 +6566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -6559,7 +6586,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -6573,7 +6600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -6587,7 +6614,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -6601,7 +6628,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6615,7 +6642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -6635,7 +6662,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>27</v>
       </c>
@@ -6649,7 +6676,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>34</v>
       </c>
@@ -6663,7 +6690,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>169</v>
       </c>
@@ -6683,7 +6710,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -6697,7 +6724,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -6711,7 +6738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -6725,7 +6752,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -6739,7 +6766,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>175</v>
       </c>
@@ -6759,7 +6786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -6773,7 +6800,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -6787,7 +6814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -6801,7 +6828,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -6821,7 +6848,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -6835,7 +6862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -6855,7 +6882,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6869,7 +6896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -6883,7 +6910,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>185</v>
       </c>
@@ -6903,7 +6930,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6917,7 +6944,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -6931,7 +6958,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -6963,17 +6990,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6993,7 +7020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -7013,7 +7040,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -7033,7 +7060,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -7053,7 +7080,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -7067,7 +7094,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -7087,7 +7114,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -7107,7 +7134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -7121,7 +7148,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -7135,7 +7162,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -7149,7 +7176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -7163,7 +7190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>201</v>
       </c>
@@ -7183,7 +7210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>27</v>
       </c>
@@ -7197,7 +7224,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>164</v>
       </c>
@@ -7217,7 +7244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7231,7 +7258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>205</v>
       </c>
@@ -7251,7 +7278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -7283,17 +7310,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7313,7 +7340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>223</v>
       </c>
@@ -7333,7 +7360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -7347,7 +7374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -7361,7 +7388,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -7375,7 +7402,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -7389,7 +7416,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -7409,7 +7436,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -7423,7 +7450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -7437,7 +7464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -7451,7 +7478,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7465,7 +7492,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -7485,7 +7512,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -7499,7 +7526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -7513,7 +7540,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -7527,7 +7554,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>21</v>
       </c>
@@ -7541,7 +7568,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -7561,7 +7588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7575,7 +7602,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -7589,7 +7616,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -7609,7 +7636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -7623,7 +7650,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>18</v>
       </c>
@@ -7637,7 +7664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -7651,7 +7678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -7665,7 +7692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>239</v>
       </c>
@@ -7685,7 +7712,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -7699,7 +7726,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -7713,7 +7740,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -7727,7 +7754,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>242</v>
       </c>
@@ -7747,7 +7774,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>27</v>
       </c>
@@ -7761,7 +7788,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>34</v>
       </c>
@@ -7775,7 +7802,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -7789,7 +7816,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -7803,7 +7830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -7817,7 +7844,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -7831,7 +7858,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>21</v>
       </c>
@@ -7845,7 +7872,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -7862,7 +7889,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>129</v>
       </c>
@@ -7873,7 +7900,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>164</v>
       </c>
@@ -7893,7 +7920,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -7907,7 +7934,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>249</v>
       </c>
@@ -7927,7 +7954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -7941,7 +7968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>18</v>
       </c>
@@ -7955,7 +7982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -7969,7 +7996,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -7983,7 +8010,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -8003,7 +8030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>27</v>
       </c>
@@ -8017,7 +8044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>34</v>
       </c>
@@ -8031,7 +8058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>37</v>
       </c>
@@ -8045,7 +8072,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -8059,7 +8086,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>246</v>
       </c>
@@ -8079,7 +8106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>27</v>
       </c>
@@ -8093,7 +8120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>34</v>
       </c>
@@ -8107,7 +8134,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -8121,7 +8148,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -8141,7 +8168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -8161,7 +8188,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>259</v>
       </c>
@@ -8181,7 +8208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>14</v>
       </c>
@@ -8195,7 +8222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>18</v>
       </c>
@@ -8209,7 +8236,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -8223,7 +8250,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>21</v>
       </c>
@@ -8237,7 +8264,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -8257,7 +8284,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>260</v>
       </c>
@@ -8277,7 +8304,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>14</v>
       </c>
@@ -8309,17 +8336,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8339,7 +8366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -8359,7 +8386,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -8379,7 +8406,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -8393,7 +8420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -8413,7 +8440,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>75</v>
       </c>
@@ -8427,7 +8454,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>285</v>
       </c>
@@ -8447,7 +8474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>27</v>
       </c>
@@ -8461,7 +8488,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -8475,7 +8502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8489,7 +8516,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -8509,7 +8536,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -8529,7 +8556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -8543,7 +8570,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8557,7 +8584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -8571,7 +8598,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -8591,7 +8618,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>278</v>
       </c>
@@ -8611,7 +8638,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -8625,7 +8652,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -8645,7 +8672,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>27</v>
       </c>
@@ -8659,7 +8686,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -8673,7 +8700,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -8687,7 +8714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -8701,7 +8728,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -8721,7 +8748,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>279</v>
       </c>
@@ -8741,7 +8768,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -8761,7 +8788,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -8781,7 +8808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>280</v>
       </c>
@@ -8801,7 +8828,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -8815,7 +8842,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>281</v>
       </c>
@@ -8835,7 +8862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -8849,7 +8876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>18</v>
       </c>
@@ -8863,7 +8890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -8877,7 +8904,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -8897,7 +8924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -8917,7 +8944,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -8937,7 +8964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -8951,7 +8978,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -8965,7 +8992,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -8979,7 +9006,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -8999,7 +9026,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>27</v>
       </c>
@@ -9013,7 +9040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -9102,17 +9129,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9132,7 +9159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -9152,7 +9179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>75</v>
       </c>
@@ -9166,7 +9193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>302</v>
       </c>
@@ -9186,7 +9213,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -9200,7 +9227,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>18</v>
       </c>
@@ -9214,7 +9241,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -9228,7 +9255,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -9242,7 +9269,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -9262,7 +9289,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -9276,7 +9303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -9290,7 +9317,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -9304,7 +9331,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -9318,7 +9345,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -9338,7 +9365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -9352,7 +9379,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -9366,7 +9393,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -9380,7 +9407,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>18</v>
       </c>
@@ -9394,7 +9421,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -9411,7 +9438,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>318</v>
       </c>
@@ -9422,7 +9449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -9442,7 +9469,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -9456,7 +9483,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -9470,7 +9497,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -9484,7 +9511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>21</v>
       </c>
@@ -9498,7 +9525,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -9518,7 +9545,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -9532,7 +9559,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -9546,7 +9573,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -9560,7 +9587,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -9580,7 +9607,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -9594,7 +9621,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -9608,7 +9635,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -9622,7 +9649,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>18</v>
       </c>
@@ -9636,7 +9663,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -9650,7 +9677,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -9664,7 +9691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -9684,7 +9711,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -9698,7 +9725,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -9762,17 +9789,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9792,7 +9819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>334</v>
       </c>
@@ -9812,7 +9839,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9826,7 +9853,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9840,7 +9867,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -9860,7 +9887,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>335</v>
       </c>
@@ -9880,7 +9907,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -9900,7 +9927,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -9914,7 +9941,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>285</v>
       </c>
@@ -9934,7 +9961,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>336</v>
       </c>
@@ -9954,7 +9981,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -9974,7 +10001,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -9994,7 +10021,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>75</v>
       </c>
@@ -10008,7 +10035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -10028,7 +10055,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -10042,7 +10069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -10056,7 +10083,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -10070,7 +10097,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -10084,7 +10111,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -10121,17 +10148,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10151,7 +10178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>382</v>
       </c>
@@ -10171,7 +10198,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>383</v>
       </c>
@@ -10191,7 +10218,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -10205,7 +10232,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>18</v>
       </c>
@@ -10219,7 +10246,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -10233,7 +10260,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -10253,7 +10280,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>75</v>
       </c>
@@ -10267,7 +10294,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -10281,7 +10308,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -10295,7 +10322,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -10315,7 +10342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -10329,7 +10356,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -10349,7 +10376,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -10363,7 +10390,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -10377,7 +10404,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -10397,7 +10424,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -10411,7 +10438,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>385</v>
       </c>
@@ -10431,7 +10458,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -10451,7 +10478,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -10471,7 +10498,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>75</v>
       </c>
@@ -10485,7 +10512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -10499,7 +10526,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -10513,7 +10540,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>386</v>
       </c>
@@ -10533,7 +10560,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -10553,7 +10580,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -10573,7 +10600,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -10587,7 +10614,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>387</v>
       </c>
@@ -10607,7 +10634,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -10621,7 +10648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -10635,7 +10662,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>18</v>
       </c>
@@ -10649,7 +10676,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -10663,7 +10690,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>21</v>
       </c>
@@ -10677,7 +10704,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -10697,7 +10724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>388</v>
       </c>
@@ -10717,7 +10744,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -10731,7 +10758,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -10745,7 +10772,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -10765,7 +10792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -10779,7 +10806,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>389</v>
       </c>
@@ -10799,7 +10826,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -10813,7 +10840,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -10827,7 +10854,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -10841,7 +10868,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>390</v>
       </c>
@@ -10861,7 +10888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -10875,7 +10902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -10889,7 +10916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>18</v>
       </c>
@@ -10903,7 +10930,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -10917,7 +10944,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -10937,7 +10964,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>393</v>
       </c>
@@ -10957,7 +10984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>14</v>
       </c>
@@ -10971,7 +10998,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>18</v>
       </c>
@@ -10985,7 +11012,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>20</v>
       </c>
@@ -10999,7 +11026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>394</v>
       </c>
@@ -11016,7 +11043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>425</v>
       </c>
@@ -11045,17 +11072,17 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11075,7 +11102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>441</v>
       </c>
@@ -11095,7 +11122,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -11109,7 +11136,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -11129,7 +11156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>75</v>
       </c>
@@ -11143,7 +11170,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -11157,7 +11184,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>444</v>
       </c>
@@ -11177,7 +11204,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -11197,7 +11224,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -11211,7 +11238,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -11225,7 +11252,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -11239,7 +11266,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -11253,7 +11280,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -11267,7 +11294,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -11281,7 +11308,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -11301,7 +11328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -11315,7 +11342,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -11329,7 +11356,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>394</v>
       </c>
@@ -11346,7 +11373,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>454</v>
       </c>
@@ -11357,7 +11384,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -11377,7 +11404,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>455</v>
       </c>
@@ -11397,7 +11424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>457</v>
       </c>
@@ -11417,7 +11444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -11431,7 +11458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -11445,7 +11472,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -11459,7 +11486,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>21</v>
       </c>
@@ -11473,7 +11500,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>394</v>
       </c>
@@ -11490,7 +11517,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>463</v>
       </c>
@@ -11510,7 +11537,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -11524,7 +11551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8566" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{389508AD-E4FE-4B27-8043-7FFFFA166AF3}"/>
+  <xr:revisionPtr revIDLastSave="8568" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD3514C5-18F1-4C6A-9103-F66F38A0C6DA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -4274,7 +4274,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1C318B00-93DC-4008-B73F-EE0B12B6759C}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4286,7 +4286,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B1CD2067-AA7C-4818-80F8-C546C694AAA0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4358,10 +4358,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4666,21 +4662,21 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4700,7 +4696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -4720,7 +4716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4748,21 +4744,21 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4782,7 +4778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -4802,7 +4798,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4816,7 +4812,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -4830,7 +4826,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -4850,7 +4846,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>75</v>
       </c>
@@ -4864,7 +4860,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -4878,7 +4874,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>472</v>
       </c>
@@ -4898,7 +4894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -4912,7 +4908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -4926,7 +4922,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -4940,7 +4936,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -4960,7 +4956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -4980,7 +4976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -4994,7 +4990,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -5008,7 +5004,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -5022,7 +5018,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -5042,7 +5038,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>75</v>
       </c>
@@ -5056,7 +5052,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -5070,7 +5066,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -5084,7 +5080,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>394</v>
       </c>
@@ -5101,7 +5097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>486</v>
       </c>
@@ -5112,7 +5108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>385</v>
       </c>
@@ -5132,7 +5128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>27</v>
       </c>
@@ -5146,7 +5142,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -5160,7 +5156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>75</v>
       </c>
@@ -5174,7 +5170,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -5194,7 +5190,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>75</v>
       </c>
@@ -5208,7 +5204,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -5222,7 +5218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -5236,7 +5232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -5256,7 +5252,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>75</v>
       </c>
@@ -5270,7 +5266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>386</v>
       </c>
@@ -5290,7 +5286,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -5304,7 +5300,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>18</v>
       </c>
@@ -5318,7 +5314,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -5338,7 +5334,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>75</v>
       </c>
@@ -5352,7 +5348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -5366,7 +5362,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -5380,7 +5376,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -5394,7 +5390,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>20</v>
       </c>
@@ -5408,7 +5404,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -5422,7 +5418,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>498</v>
       </c>
@@ -5442,7 +5438,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -5456,7 +5452,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -5470,7 +5466,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -5490,7 +5486,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -5504,7 +5500,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -5518,7 +5514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>18</v>
       </c>
@@ -5532,7 +5528,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -5552,7 +5548,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>75</v>
       </c>
@@ -5566,7 +5562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5580,7 +5576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>14</v>
       </c>
@@ -5594,7 +5590,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>18</v>
       </c>
@@ -5608,7 +5604,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>508</v>
       </c>
@@ -5628,7 +5624,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>510</v>
       </c>
@@ -5648,7 +5644,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>511</v>
       </c>
@@ -5662,7 +5658,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>511</v>
       </c>
@@ -5676,7 +5672,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>394</v>
       </c>
@@ -5693,7 +5689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>139</v>
       </c>
@@ -5718,21 +5714,21 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5752,7 +5748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -5772,7 +5768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>516</v>
       </c>
@@ -5792,7 +5788,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -5806,7 +5802,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -5826,7 +5822,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -5840,7 +5836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -5854,7 +5850,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -5874,7 +5870,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -5888,7 +5884,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -5908,7 +5904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -5922,7 +5918,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -5936,7 +5932,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -5950,7 +5946,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>385</v>
       </c>
@@ -5970,7 +5966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -5984,7 +5980,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -6004,7 +6000,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -6018,7 +6014,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>527</v>
       </c>
@@ -6038,7 +6034,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>18</v>
       </c>
@@ -6052,7 +6048,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -6072,7 +6068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>75</v>
       </c>
@@ -6086,7 +6082,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -6100,7 +6096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6114,7 +6110,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -6128,7 +6124,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>386</v>
       </c>
@@ -6148,7 +6144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -6162,7 +6158,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -6196,20 +6192,20 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6229,7 +6225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -6250,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -6271,7 +6267,7 @@
         <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6292,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6313,7 +6309,7 @@
         <v>0.76470588235294112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6334,7 +6330,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6355,7 +6351,7 @@
         <v>0.68965517241379315</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6376,7 +6372,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6397,7 +6393,7 @@
         <v>0.44117647058823528</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6418,7 +6414,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6439,7 +6435,7 @@
         <v>0.56097560975609762</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2024</v>
       </c>
@@ -6460,7 +6456,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -6485,7 +6481,7 @@
         <v>0.53200000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>145</v>
       </c>
@@ -6532,21 +6528,21 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6566,7 +6562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -6586,7 +6582,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -6600,7 +6596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -6614,7 +6610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -6628,7 +6624,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6642,7 +6638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -6662,7 +6658,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>27</v>
       </c>
@@ -6676,7 +6672,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>34</v>
       </c>
@@ -6690,7 +6686,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>169</v>
       </c>
@@ -6710,7 +6706,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -6724,7 +6720,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -6738,7 +6734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -6752,7 +6748,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -6766,7 +6762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>175</v>
       </c>
@@ -6786,7 +6782,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -6800,7 +6796,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>20</v>
       </c>
@@ -6814,7 +6810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -6828,7 +6824,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -6848,7 +6844,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -6862,7 +6858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -6882,7 +6878,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6896,7 +6892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -6910,7 +6906,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>185</v>
       </c>
@@ -6930,7 +6926,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6944,7 +6940,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -6958,7 +6954,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -6986,21 +6982,21 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7020,7 +7016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -7040,7 +7036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -7060,7 +7056,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -7080,7 +7076,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -7094,7 +7090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -7114,7 +7110,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -7134,7 +7130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -7148,7 +7144,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -7162,7 +7158,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -7176,7 +7172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -7190,7 +7186,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>201</v>
       </c>
@@ -7210,7 +7206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>27</v>
       </c>
@@ -7224,7 +7220,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>164</v>
       </c>
@@ -7244,7 +7240,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7258,7 +7254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>205</v>
       </c>
@@ -7278,7 +7274,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -7306,21 +7302,21 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7340,7 +7336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>223</v>
       </c>
@@ -7360,7 +7356,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -7374,7 +7370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -7388,7 +7384,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -7402,7 +7398,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -7416,7 +7412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -7436,7 +7432,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -7450,7 +7446,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -7464,7 +7460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -7478,7 +7474,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -7492,7 +7488,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -7512,7 +7508,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -7526,7 +7522,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -7540,7 +7536,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -7554,7 +7550,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>21</v>
       </c>
@@ -7568,7 +7564,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -7588,7 +7584,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7602,7 +7598,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -7616,7 +7612,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -7636,7 +7632,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -7650,7 +7646,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>18</v>
       </c>
@@ -7664,7 +7660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -7678,7 +7674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -7692,7 +7688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>239</v>
       </c>
@@ -7712,7 +7708,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -7726,7 +7722,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -7740,7 +7736,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -7754,7 +7750,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>242</v>
       </c>
@@ -7774,7 +7770,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>27</v>
       </c>
@@ -7788,7 +7784,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>34</v>
       </c>
@@ -7802,7 +7798,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -7816,7 +7812,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -7830,7 +7826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -7844,7 +7840,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -7858,7 +7854,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>21</v>
       </c>
@@ -7872,7 +7868,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -7889,7 +7885,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>129</v>
       </c>
@@ -7900,7 +7896,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>164</v>
       </c>
@@ -7920,7 +7916,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -7934,7 +7930,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>249</v>
       </c>
@@ -7954,7 +7950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -7968,7 +7964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>18</v>
       </c>
@@ -7982,7 +7978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>20</v>
       </c>
@@ -7996,7 +7992,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -8010,7 +8006,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -8030,7 +8026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>27</v>
       </c>
@@ -8044,7 +8040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>34</v>
       </c>
@@ -8058,7 +8054,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>37</v>
       </c>
@@ -8072,7 +8068,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -8086,7 +8082,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>246</v>
       </c>
@@ -8106,7 +8102,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>27</v>
       </c>
@@ -8120,7 +8116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>34</v>
       </c>
@@ -8134,7 +8130,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>15</v>
       </c>
@@ -8148,7 +8144,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -8168,7 +8164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -8188,7 +8184,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>259</v>
       </c>
@@ -8208,7 +8204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>14</v>
       </c>
@@ -8222,7 +8218,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>18</v>
       </c>
@@ -8236,7 +8232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>20</v>
       </c>
@@ -8250,7 +8246,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>21</v>
       </c>
@@ -8264,7 +8260,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -8284,7 +8280,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>260</v>
       </c>
@@ -8304,7 +8300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>14</v>
       </c>
@@ -8332,21 +8328,21 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8366,7 +8362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -8386,7 +8382,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -8406,7 +8402,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -8420,7 +8416,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -8440,7 +8436,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>75</v>
       </c>
@@ -8454,7 +8450,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>285</v>
       </c>
@@ -8474,7 +8470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>27</v>
       </c>
@@ -8488,7 +8484,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -8502,7 +8498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -8516,7 +8512,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -8536,7 +8532,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -8556,7 +8552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -8570,7 +8566,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8584,7 +8580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -8598,7 +8594,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -8618,7 +8614,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>278</v>
       </c>
@@ -8638,7 +8634,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>14</v>
       </c>
@@ -8652,7 +8648,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -8672,7 +8668,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>27</v>
       </c>
@@ -8686,7 +8682,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -8700,7 +8696,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -8714,7 +8710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -8728,7 +8724,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -8748,7 +8744,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>279</v>
       </c>
@@ -8768,7 +8764,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -8788,7 +8784,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -8808,7 +8804,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>280</v>
       </c>
@@ -8828,7 +8824,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -8842,7 +8838,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>281</v>
       </c>
@@ -8862,7 +8858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -8876,7 +8872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>18</v>
       </c>
@@ -8890,7 +8886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>20</v>
       </c>
@@ -8904,7 +8900,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -8924,7 +8920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -8944,7 +8940,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -8964,7 +8960,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -8978,7 +8974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -8992,7 +8988,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -9006,7 +9002,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -9026,7 +9022,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>27</v>
       </c>
@@ -9040,7 +9036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>75</v>
       </c>
@@ -9125,21 +9121,21 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9159,7 +9155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -9179,7 +9175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>75</v>
       </c>
@@ -9193,7 +9189,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>302</v>
       </c>
@@ -9213,7 +9209,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -9227,7 +9223,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>18</v>
       </c>
@@ -9241,7 +9237,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -9255,7 +9251,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -9269,7 +9265,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -9289,7 +9285,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>75</v>
       </c>
@@ -9303,7 +9299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -9317,7 +9313,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -9331,7 +9327,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -9345,7 +9341,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -9365,7 +9361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>75</v>
       </c>
@@ -9379,7 +9375,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -9393,7 +9389,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -9407,7 +9403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>18</v>
       </c>
@@ -9421,7 +9417,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -9438,7 +9434,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>318</v>
       </c>
@@ -9449,7 +9445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -9469,7 +9465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -9483,7 +9479,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>18</v>
       </c>
@@ -9497,7 +9493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>20</v>
       </c>
@@ -9511,7 +9507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>21</v>
       </c>
@@ -9525,7 +9521,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -9545,7 +9541,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -9559,7 +9555,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -9573,7 +9569,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>18</v>
       </c>
@@ -9587,7 +9583,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -9607,7 +9603,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -9621,7 +9617,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -9635,7 +9631,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -9649,7 +9645,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>18</v>
       </c>
@@ -9663,7 +9659,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -9677,7 +9673,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -9691,7 +9687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -9711,7 +9707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -9725,7 +9721,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -9785,21 +9781,21 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9819,7 +9815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>334</v>
       </c>
@@ -9839,7 +9835,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -9853,7 +9849,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -9867,7 +9863,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -9887,7 +9883,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>335</v>
       </c>
@@ -9907,7 +9903,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -9927,7 +9923,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -9941,7 +9937,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>285</v>
       </c>
@@ -9961,7 +9957,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>336</v>
       </c>
@@ -9981,7 +9977,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -10001,7 +9997,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -10021,7 +10017,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>75</v>
       </c>
@@ -10035,7 +10031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -10055,7 +10051,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -10069,7 +10065,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -10083,7 +10079,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -10097,7 +10093,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -10111,7 +10107,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -10144,21 +10140,21 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10178,7 +10174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>382</v>
       </c>
@@ -10198,7 +10194,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>383</v>
       </c>
@@ -10218,7 +10214,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -10232,7 +10228,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>18</v>
       </c>
@@ -10246,7 +10242,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -10260,7 +10256,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -10280,7 +10276,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>75</v>
       </c>
@@ -10294,7 +10290,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -10308,7 +10304,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -10322,7 +10318,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -10342,7 +10338,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -10356,7 +10352,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -10376,7 +10372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -10390,7 +10386,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -10404,7 +10400,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -10424,7 +10420,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -10438,7 +10434,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>385</v>
       </c>
@@ -10458,7 +10454,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -10478,7 +10474,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -10498,7 +10494,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>75</v>
       </c>
@@ -10512,7 +10508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -10526,7 +10522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -10540,7 +10536,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>386</v>
       </c>
@@ -10560,7 +10556,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -10580,7 +10576,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -10600,7 +10596,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>75</v>
       </c>
@@ -10614,7 +10610,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>387</v>
       </c>
@@ -10634,7 +10630,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -10648,7 +10644,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -10662,7 +10658,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>18</v>
       </c>
@@ -10676,7 +10672,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>20</v>
       </c>
@@ -10690,7 +10686,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>21</v>
       </c>
@@ -10704,7 +10700,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -10724,7 +10720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>388</v>
       </c>
@@ -10744,7 +10740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>14</v>
       </c>
@@ -10758,7 +10754,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -10772,7 +10768,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -10792,7 +10788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -10806,7 +10802,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>389</v>
       </c>
@@ -10826,7 +10822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>14</v>
       </c>
@@ -10840,7 +10836,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>18</v>
       </c>
@@ -10854,7 +10850,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>20</v>
       </c>
@@ -10868,7 +10864,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>390</v>
       </c>
@@ -10888,7 +10884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -10902,7 +10898,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>14</v>
       </c>
@@ -10916,7 +10912,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>18</v>
       </c>
@@ -10930,7 +10926,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -10944,7 +10940,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -10964,7 +10960,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>393</v>
       </c>
@@ -10984,7 +10980,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>14</v>
       </c>
@@ -10998,7 +10994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>18</v>
       </c>
@@ -11012,7 +11008,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>20</v>
       </c>
@@ -11026,7 +11022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>394</v>
       </c>
@@ -11043,7 +11039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>425</v>
       </c>
@@ -11068,21 +11064,21 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11102,7 +11098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>441</v>
       </c>
@@ -11122,7 +11118,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -11136,7 +11132,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -11156,7 +11152,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>75</v>
       </c>
@@ -11170,7 +11166,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -11184,7 +11180,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>444</v>
       </c>
@@ -11204,7 +11200,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -11224,7 +11220,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>27</v>
       </c>
@@ -11238,7 +11234,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -11252,7 +11248,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -11266,7 +11262,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -11280,7 +11276,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -11294,7 +11290,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -11308,7 +11304,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -11328,7 +11324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -11342,7 +11338,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -11356,7 +11352,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>394</v>
       </c>
@@ -11373,7 +11369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>454</v>
       </c>
@@ -11384,7 +11380,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -11404,7 +11400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>455</v>
       </c>
@@ -11424,7 +11420,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>457</v>
       </c>
@@ -11444,7 +11440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -11458,7 +11454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -11472,7 +11468,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -11486,7 +11482,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>21</v>
       </c>
@@ -11500,7 +11496,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>394</v>
       </c>
@@ -11517,7 +11513,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>463</v>
       </c>
@@ -11537,7 +11533,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -11551,7 +11547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8568" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD3514C5-18F1-4C6A-9103-F66F38A0C6DA}"/>
+  <xr:revisionPtr revIDLastSave="8570" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8005717A-6A0E-403D-8B0D-E9C7A4944FCE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -405,9 +405,6 @@
     <t>Simona Halep (ROMANIA)</t>
   </si>
   <si>
-    <t>DUBAI TENNIS CHAMPIONSHIPS</t>
-  </si>
-  <si>
     <t>Wang Yafan (CHINA)</t>
   </si>
   <si>
@@ -1657,6 +1654,9 @@
   </si>
   <si>
     <t>Jéssica Bouzas Maneiro (SPAIN)</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
   </si>
 </sst>
 </file>
@@ -4274,7 +4274,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1C318B00-93DC-4008-B73F-EE0B12B6759C}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4286,7 +4286,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B1CD2067-AA7C-4818-80F8-C546C694AAA0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4662,7 +4662,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -4707,7 +4707,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -4721,7 +4721,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
@@ -4744,13 +4744,13 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -4789,13 +4789,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4803,13 +4803,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4823,7 +4823,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4837,13 +4837,13 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4857,7 +4857,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4865,18 +4865,18 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -4885,7 +4885,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -4899,7 +4899,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -4913,13 +4913,13 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
+        <v>477</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
         <v>478</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4927,18 +4927,18 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>536</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -4967,7 +4967,7 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -4987,7 +4987,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5009,13 +5009,13 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5029,13 +5029,13 @@
         <v>37</v>
       </c>
       <c r="D22" t="s">
+        <v>482</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
         <v>483</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5043,13 +5043,13 @@
         <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5071,24 +5071,24 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
@@ -5119,7 +5119,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -5133,13 +5133,13 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5147,7 +5147,7 @@
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -5161,13 +5161,13 @@
         <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5181,13 +5181,13 @@
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5195,13 +5195,13 @@
         <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5209,7 +5209,7 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
@@ -5223,7 +5223,7 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
@@ -5243,13 +5243,13 @@
         <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5257,7 +5257,7 @@
         <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>17</v>
@@ -5268,7 +5268,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
@@ -5277,13 +5277,13 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -5291,13 +5291,13 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5305,13 +5305,13 @@
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5325,7 +5325,7 @@
         <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
@@ -5339,7 +5339,7 @@
         <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
@@ -5353,7 +5353,7 @@
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>16</v>
@@ -5373,7 +5373,7 @@
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5381,13 +5381,13 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -5395,13 +5395,13 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -5409,18 +5409,18 @@
         <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B55" t="s">
         <v>25</v>
@@ -5429,13 +5429,13 @@
         <v>75</v>
       </c>
       <c r="D55" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -5443,7 +5443,7 @@
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
@@ -5457,7 +5457,7 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>17</v>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B59" t="s">
         <v>25</v>
@@ -5491,13 +5491,13 @@
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5505,7 +5505,7 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
@@ -5519,13 +5519,13 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -5539,7 +5539,7 @@
         <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
@@ -5553,7 +5553,7 @@
         <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
@@ -5567,7 +5567,7 @@
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>16</v>
@@ -5581,13 +5581,13 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -5595,7 +5595,7 @@
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>17</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B70" t="s">
         <v>25</v>
@@ -5621,35 +5621,35 @@
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B72" t="s">
         <v>25</v>
       </c>
       <c r="C72" t="s">
+        <v>510</v>
+      </c>
+      <c r="D72" t="s">
+        <v>347</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s">
         <v>511</v>
-      </c>
-      <c r="D72" t="s">
-        <v>348</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D73" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>17</v>
@@ -5660,27 +5660,27 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D74" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B76" t="s">
         <v>25</v>
       </c>
       <c r="D76" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>16</v>
@@ -5691,13 +5691,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -5714,8 +5714,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5759,7 +5759,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -5770,7 +5770,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -5779,13 +5779,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5793,7 +5793,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>536</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -5813,13 +5813,13 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5827,7 +5827,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
@@ -5841,18 +5841,18 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -5861,13 +5861,13 @@
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5875,18 +5875,18 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F12" t="s">
         <v>391</v>
-      </c>
-      <c r="F12" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -5895,7 +5895,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -5909,13 +5909,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5929,7 +5929,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5937,18 +5937,18 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -5971,7 +5971,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
@@ -5997,7 +5997,7 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6005,18 +6005,18 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -6025,13 +6025,13 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6059,7 +6059,7 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -6073,13 +6073,13 @@
         <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6087,7 +6087,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -6101,13 +6101,13 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6115,18 +6115,18 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B34" t="s">
         <v>83</v>
@@ -6135,7 +6135,7 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
@@ -6149,13 +6149,13 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
+        <v>533</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
         <v>534</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6169,13 +6169,13 @@
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -6191,7 +6191,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6483,7 +6483,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
@@ -6528,7 +6528,7 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -6573,7 +6573,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -6587,7 +6587,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -6601,7 +6601,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -6615,13 +6615,13 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6640,7 +6640,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -6649,13 +6649,13 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6669,7 +6669,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6677,18 +6677,18 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -6697,7 +6697,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -6711,13 +6711,13 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6725,7 +6725,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -6739,13 +6739,13 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6753,7 +6753,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -6764,7 +6764,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -6773,7 +6773,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
@@ -6787,7 +6787,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -6815,7 +6815,7 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -6826,7 +6826,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -6835,13 +6835,13 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6849,7 +6849,7 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
         <v>90</v>
@@ -6869,7 +6869,7 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
@@ -6883,7 +6883,7 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -6897,18 +6897,18 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -6917,13 +6917,13 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6931,13 +6931,13 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6945,7 +6945,7 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -6982,7 +6982,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7027,7 +7027,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -7053,7 +7053,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7067,7 +7067,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
@@ -7092,7 +7092,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -7101,18 +7101,18 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -7121,7 +7121,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -7135,13 +7135,13 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7149,7 +7149,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -7163,7 +7163,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -7177,7 +7177,7 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
@@ -7188,7 +7188,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -7197,7 +7197,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -7211,7 +7211,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>17</v>
@@ -7222,7 +7222,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -7231,7 +7231,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -7279,13 +7279,13 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -7302,7 +7302,7 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -7347,7 +7347,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -7361,7 +7361,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -7375,13 +7375,13 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>224</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7414,7 +7414,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -7423,7 +7423,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
@@ -7451,7 +7451,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -7465,13 +7465,13 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7479,7 +7479,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -7499,13 +7499,13 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7527,13 +7527,13 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7541,7 +7541,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -7561,12 +7561,12 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -7575,7 +7575,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -7595,7 +7595,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7603,7 +7603,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -7623,7 +7623,7 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
@@ -7643,7 +7643,7 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7651,7 +7651,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
@@ -7665,7 +7665,7 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -7690,7 +7690,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -7699,7 +7699,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -7719,7 +7719,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7727,7 +7727,7 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -7741,7 +7741,7 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
@@ -7752,7 +7752,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -7761,13 +7761,13 @@
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -7781,7 +7781,7 @@
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -7789,7 +7789,7 @@
         <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
@@ -7803,13 +7803,13 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7817,7 +7817,7 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
@@ -7831,13 +7831,13 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7851,7 +7851,7 @@
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -7859,13 +7859,13 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -7882,12 +7882,12 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>17</v>
@@ -7898,7 +7898,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
@@ -7907,13 +7907,13 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -7921,7 +7921,7 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>17</v>
@@ -7932,7 +7932,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
@@ -7941,7 +7941,7 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
@@ -7983,13 +7983,13 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -8003,7 +8003,7 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -8045,7 +8045,7 @@
         <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
@@ -8059,13 +8059,13 @@
         <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -8079,12 +8079,12 @@
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s">
         <v>83</v>
@@ -8093,7 +8093,7 @@
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>16</v>
@@ -8107,7 +8107,7 @@
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
@@ -8121,13 +8121,13 @@
         <v>34</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -8141,12 +8141,12 @@
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B67" t="s">
         <v>83</v>
@@ -8155,7 +8155,7 @@
         <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>17</v>
@@ -8175,18 +8175,18 @@
         <v>37</v>
       </c>
       <c r="D69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
@@ -8195,7 +8195,7 @@
         <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
@@ -8209,7 +8209,7 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>16</v>
@@ -8223,7 +8223,7 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>16</v>
@@ -8237,13 +8237,13 @@
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -8251,7 +8251,7 @@
         <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
@@ -8271,18 +8271,18 @@
         <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B79" t="s">
         <v>25</v>
@@ -8291,7 +8291,7 @@
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>16</v>
@@ -8311,7 +8311,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -8328,13 +8328,13 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
@@ -8364,7 +8364,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -8373,13 +8373,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8393,7 +8393,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -8407,7 +8407,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>17</v>
@@ -8427,7 +8427,7 @@
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
@@ -8447,12 +8447,12 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -8461,7 +8461,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -8475,7 +8475,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -8489,7 +8489,7 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -8503,7 +8503,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>17</v>
@@ -8514,7 +8514,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>536</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -8523,18 +8523,18 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -8585,13 +8585,13 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8605,18 +8605,18 @@
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -8625,13 +8625,13 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8639,18 +8639,18 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -8659,7 +8659,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -8673,13 +8673,13 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8687,13 +8687,13 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8701,7 +8701,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -8715,13 +8715,13 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8741,12 +8741,12 @@
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s">
         <v>83</v>
@@ -8761,7 +8761,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -8806,7 +8806,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -8815,13 +8815,13 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8829,7 +8829,7 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>17</v>
@@ -8840,7 +8840,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
@@ -8849,7 +8849,7 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
@@ -8863,7 +8863,7 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
@@ -8891,18 +8891,18 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -8931,13 +8931,13 @@
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -8965,7 +8965,7 @@
         <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
@@ -8979,13 +8979,13 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -8993,13 +8993,13 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -9019,7 +9019,7 @@
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -9041,13 +9041,13 @@
         <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -9121,7 +9121,7 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9180,7 +9180,7 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>17</v>
@@ -9191,7 +9191,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -9200,13 +9200,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9214,13 +9214,13 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9228,13 +9228,13 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9242,13 +9242,13 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9262,12 +9262,12 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -9276,7 +9276,7 @@
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -9304,13 +9304,13 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9324,7 +9324,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9332,13 +9332,13 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9366,13 +9366,13 @@
         <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9380,13 +9380,13 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9414,7 +9414,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -9425,7 +9425,7 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
@@ -9447,7 +9447,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -9470,7 +9470,7 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -9484,7 +9484,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -9512,13 +9512,13 @@
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9538,7 +9538,7 @@
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9552,7 +9552,7 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -9566,7 +9566,7 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9580,7 +9580,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9594,13 +9594,13 @@
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -9608,13 +9608,13 @@
         <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -9622,13 +9622,13 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -9636,13 +9636,13 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -9650,13 +9650,13 @@
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -9670,7 +9670,7 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -9689,7 +9689,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s">
         <v>83</v>
@@ -9698,7 +9698,7 @@
         <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
@@ -9712,13 +9712,13 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -9781,7 +9781,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9817,7 +9817,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -9840,13 +9840,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9860,7 +9860,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9874,18 +9874,18 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -9900,12 +9900,12 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>536</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -9914,13 +9914,13 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9928,18 +9928,18 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -9948,18 +9948,18 @@
         <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -9968,18 +9968,18 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -9988,13 +9988,13 @@
         <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10008,7 +10008,7 @@
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -10022,7 +10022,7 @@
         <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
@@ -10042,13 +10042,13 @@
         <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -10056,7 +10056,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -10070,13 +10070,13 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -10084,7 +10084,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
@@ -10118,7 +10118,7 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
@@ -10140,13 +10140,13 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
@@ -10176,7 +10176,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -10185,18 +10185,18 @@
         <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -10205,13 +10205,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -10219,13 +10219,13 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10239,7 +10239,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -10247,13 +10247,13 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -10267,13 +10267,13 @@
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -10281,13 +10281,13 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10295,7 +10295,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -10309,18 +10309,18 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>536</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -10343,13 +10343,13 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10363,7 +10363,7 @@
         <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -10377,13 +10377,13 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10397,12 +10397,12 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -10417,7 +10417,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -10431,12 +10431,12 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -10445,13 +10445,13 @@
         <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10471,7 +10471,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -10485,13 +10485,13 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -10499,7 +10499,7 @@
         <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -10513,7 +10513,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -10527,18 +10527,18 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B33" t="s">
         <v>83</v>
@@ -10547,7 +10547,7 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
@@ -10558,7 +10558,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
         <v>83</v>
@@ -10567,13 +10567,13 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -10587,13 +10587,13 @@
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -10601,18 +10601,18 @@
         <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
@@ -10621,13 +10621,13 @@
         <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -10635,7 +10635,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
@@ -10649,13 +10649,13 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10663,13 +10663,13 @@
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -10677,13 +10677,13 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -10691,18 +10691,18 @@
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -10711,7 +10711,7 @@
         <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>17</v>
@@ -10722,7 +10722,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -10731,7 +10731,7 @@
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>16</v>
@@ -10745,13 +10745,13 @@
         <v>14</v>
       </c>
       <c r="D50" t="s">
+        <v>416</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
         <v>417</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -10759,13 +10759,13 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -10779,7 +10779,7 @@
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
@@ -10799,12 +10799,12 @@
         <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B56" t="s">
         <v>25</v>
@@ -10813,7 +10813,7 @@
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
@@ -10827,7 +10827,7 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
@@ -10841,7 +10841,7 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
@@ -10855,18 +10855,18 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B61" t="s">
         <v>25</v>
@@ -10889,7 +10889,7 @@
         <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>16</v>
@@ -10903,7 +10903,7 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
@@ -10917,13 +10917,13 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -10931,18 +10931,18 @@
         <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E65" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F65" t="s">
         <v>391</v>
-      </c>
-      <c r="F65" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
@@ -10951,18 +10951,18 @@
         <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B69" t="s">
         <v>25</v>
@@ -10971,7 +10971,7 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>16</v>
@@ -10985,7 +10985,7 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
@@ -10999,13 +10999,13 @@
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -11013,7 +11013,7 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>17</v>
@@ -11024,13 +11024,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B74" t="s">
         <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>16</v>
@@ -11041,13 +11041,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -11064,7 +11064,7 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11100,7 +11100,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -11109,13 +11109,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11123,13 +11123,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11143,7 +11143,7 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -11157,7 +11157,7 @@
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
@@ -11177,12 +11177,12 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -11191,18 +11191,18 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>536</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -11211,13 +11211,13 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -11225,13 +11225,13 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -11239,13 +11239,13 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -11253,13 +11253,13 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11267,7 +11267,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
@@ -11281,7 +11281,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -11295,18 +11295,18 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F17" t="s">
         <v>391</v>
-      </c>
-      <c r="F17" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -11315,7 +11315,7 @@
         <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -11329,13 +11329,13 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11343,24 +11343,24 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -11371,18 +11371,18 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -11391,7 +11391,7 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>17</v>
@@ -11402,7 +11402,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -11411,7 +11411,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
@@ -11422,7 +11422,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -11431,7 +11431,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -11445,7 +11445,7 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
@@ -11459,13 +11459,13 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11473,13 +11473,13 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -11487,7 +11487,7 @@
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
@@ -11498,24 +11498,24 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -11524,13 +11524,13 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -11538,7 +11538,7 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
@@ -11552,13 +11552,13 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8570" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8005717A-6A0E-403D-8B0D-E9C7A4944FCE}"/>
+  <xr:revisionPtr revIDLastSave="8614" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42C0168A-569F-4839-98DD-5C066944C031}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="6555" yWindow="5535" windowWidth="28800" windowHeight="15345" firstSheet="1" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="2022" sheetId="31" r:id="rId9"/>
     <sheet name="2023" sheetId="34" r:id="rId10"/>
     <sheet name="2024" sheetId="39" r:id="rId11"/>
-    <sheet name="Stats" sheetId="1" r:id="rId12"/>
-    <sheet name="Wins-Losses" sheetId="40" r:id="rId13"/>
-    <sheet name="Winning Percentile Range" sheetId="41" r:id="rId14"/>
+    <sheet name="2025" sheetId="42" r:id="rId12"/>
+    <sheet name="Stats" sheetId="1" r:id="rId13"/>
+    <sheet name="Wins-Losses" sheetId="43" r:id="rId14"/>
+    <sheet name="Winning Percentile Range" sheetId="44" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="540">
   <si>
     <t>ROUND</t>
   </si>
@@ -1657,6 +1658,15 @@
   </si>
   <si>
     <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>Diana Shnaider (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-4 6-7(4) 6-2</t>
+  </si>
+  <si>
+    <t>6-4 1-1 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -2089,12 +2099,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Markéta Vondroušová (CZECH REPUBLIC):</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Wins-Losses</a:t>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Markéta Vondroušová (CZECH REPUBLIC): Wins-Losses</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -2162,10 +2168,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2199,15 +2205,18 @@
                 <c:pt idx="10">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$12</c:f>
+              <c:f>Stats!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2241,12 +2250,15 @@
                 <c:pt idx="10">
                   <c:v>15</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8FD1-4364-8321-551A69A12CA7}"/>
+              <c16:uniqueId val="{00000000-136E-4596-8DEE-BCC32BDA94A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2276,10 +2288,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2313,15 +2325,18 @@
                 <c:pt idx="10">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$12</c:f>
+              <c:f>Stats!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2355,12 +2370,15 @@
                 <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8FD1-4364-8321-551A69A12CA7}"/>
+              <c16:uniqueId val="{00000001-136E-4596-8DEE-BCC32BDA94A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2374,11 +2392,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="706725984"/>
-        <c:axId val="1045843408"/>
+        <c:axId val="925979807"/>
+        <c:axId val="925971647"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="706725984"/>
+        <c:axId val="925979807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2476,7 +2494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045843408"/>
+        <c:crossAx val="925971647"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2484,7 +2502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1045843408"/>
+        <c:axId val="925971647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +2608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="706725984"/>
+        <c:crossAx val="925979807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2699,9 +2717,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
               <a:t>Markéta Vondroušová (CZECH REPUBLIC): Winning Percentile Range</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2794,10 +2813,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$12</c:f>
+              <c:f>Stats!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2831,15 +2850,18 @@
                 <c:pt idx="10">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$12</c:f>
+              <c:f>Stats!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2873,13 +2895,16 @@
                 <c:pt idx="10">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0887-4841-839B-6C818A00CCCD}"/>
+              <c16:uniqueId val="{00000000-C394-4443-849D-368733BD7ED5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2893,11 +2918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1002607024"/>
-        <c:axId val="1013409040"/>
+        <c:axId val="925976927"/>
+        <c:axId val="925967807"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1002607024"/>
+        <c:axId val="925976927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,7 +3020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013409040"/>
+        <c:crossAx val="925967807"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3003,7 +3028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1013409040"/>
+        <c:axId val="925967807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3109,7 +3134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1002607024"/>
+        <c:crossAx val="925976927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4271,10 +4296,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1C318B00-93DC-4008-B73F-EE0B12B6759C}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9B719C3C-AB94-429A-A8AB-4399A2EA3741}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4283,10 +4308,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B1CD2067-AA7C-4818-80F8-C546C694AAA0}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{06C2A826-5E5A-48AD-BC64-D69D258EFBD3}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4298,13 +4323,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8580504" cy="5835063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C82165-82F8-55A7-690B-56A0C6EE9739}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AE8D5E-3E5A-5B4D-2743-205C98DF1BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4331,13 +4356,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8580504" cy="5835063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EABBC4-7367-0D51-F0BE-2395F51F5173}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006CEEF5-B49D-5B3C-BCEF-E6C731BC3EC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4358,6 +4383,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5714,8 +5743,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6185,14 +6214,95 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD807F83-B9DD-4AE2-BCE5-36BB423ABF8F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6242,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F12" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F13" si="0">(D2-E2)/D2</f>
         <v>0</v>
       </c>
     </row>
@@ -6457,57 +6567,78 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2">
-        <f>SUM(B2:B12)</f>
-        <v>133</v>
-      </c>
-      <c r="C13" s="2">
-        <f>SUM(C2:C12)</f>
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
-        <f>SUM(D2:D12)</f>
-        <v>250</v>
-      </c>
-      <c r="E13" s="2">
-        <f>SUM(E2:E12)</f>
-        <v>117</v>
-      </c>
-      <c r="F13" s="3">
-        <f>(D13-E13)/D13</f>
-        <v>0.53200000000000003</v>
+      <c r="A13">
+        <v>2025</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
-        <f>AVERAGE(B2:B12)</f>
-        <v>12.090909090909092</v>
+        <f>SUM(B2:B13)</f>
+        <v>134</v>
       </c>
       <c r="C14" s="2">
-        <f>AVERAGE(C2:C12)</f>
-        <v>0.18181818181818182</v>
+        <f>SUM(C2:C13)</f>
+        <v>2</v>
       </c>
       <c r="D14" s="2">
-        <f>AVERAGE(D2:D12)</f>
-        <v>22.727272727272727</v>
+        <f>SUM(D2:D13)</f>
+        <v>251</v>
       </c>
       <c r="E14" s="2">
-        <f>AVERAGE(E2:E12)</f>
-        <v>10.636363636363637</v>
+        <f>SUM(E2:E13)</f>
+        <v>118</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.53199999999999992</v>
+        <v>0.52988047808764938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(B2:B13)</f>
+        <v>11.166666666666666</v>
+      </c>
+      <c r="C15" s="2">
+        <f>AVERAGE(C2:C13)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D15" s="2">
+        <f>AVERAGE(D2:D13)</f>
+        <v>20.916666666666668</v>
+      </c>
+      <c r="E15" s="2">
+        <f>AVERAGE(E2:E13)</f>
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="F15" s="3">
+        <f>(D15-E15)/D15</f>
+        <v>0.52988047808764938</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F12">
+  <conditionalFormatting sqref="F2:F13">
     <cfRule type="iconSet" priority="39">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8614" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42C0168A-569F-4839-98DD-5C066944C031}"/>
+  <xr:revisionPtr revIDLastSave="8644" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1021CFF3-70BB-4A73-93FA-98F4C9F7F063}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="5535" windowWidth="28800" windowHeight="15345" firstSheet="1" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="1" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -26,8 +26,6 @@
     <sheet name="2024" sheetId="39" r:id="rId11"/>
     <sheet name="2025" sheetId="42" r:id="rId12"/>
     <sheet name="Stats" sheetId="1" r:id="rId13"/>
-    <sheet name="Wins-Losses" sheetId="43" r:id="rId14"/>
-    <sheet name="Winning Percentile Range" sheetId="44" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="540">
   <si>
     <t>ROUND</t>
   </si>
@@ -2251,14 +2249,14 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-136E-4596-8DEE-BCC32BDA94A9}"/>
+              <c16:uniqueId val="{00000000-6836-4C42-93C1-EA8D4FB748E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2371,14 +2369,14 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-136E-4596-8DEE-BCC32BDA94A9}"/>
+              <c16:uniqueId val="{00000001-6836-4C42-93C1-EA8D4FB748E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2680,6 +2678,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2904,7 +2907,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C394-4443-849D-368733BD7ED5}"/>
+              <c16:uniqueId val="{00000001-5CEA-4033-A638-44922E07D95F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3206,6 +3209,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4295,47 +4303,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9B719C3C-AB94-429A-A8AB-4399A2EA3741}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{06C2A826-5E5A-48AD-BC64-D69D258EFBD3}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8580504" cy="5835063"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AE8D5E-3E5A-5B4D-2743-205C98DF1BED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257F5EA2-1C2D-956D-0B0D-EDD16E1E3870}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4348,27 +4340,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8580504" cy="5835063"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006CEEF5-B49D-5B3C-BCEF-E6C731BC3EC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5501D6BD-64F9-6114-8F1D-38E93088FED0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4376,17 +4371,13 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6218,17 +6209,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -6286,6 +6277,74 @@
       </c>
       <c r="F3" t="s">
         <v>539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>523</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -6301,8 +6360,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6571,16 +6630,16 @@
         <v>2025</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
@@ -6593,7 +6652,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -6601,15 +6660,15 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.52988047808764938</v>
+        <v>0.52569169960474305</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6618,7 +6677,7 @@
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>11.166666666666666</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -6626,15 +6685,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>20.916666666666668</v>
+        <v>21.083333333333332</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>9.8333333333333339</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.52988047808764938</v>
+        <v>0.52569169960474305</v>
       </c>
     </row>
   </sheetData>
@@ -6649,6 +6708,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="8644" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1021CFF3-70BB-4A73-93FA-98F4C9F7F063}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="1" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -4380,6 +4380,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4683,7 +4687,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4765,7 +4769,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5735,7 +5739,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E20"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6361,7 +6365,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6720,7 +6724,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7174,7 +7178,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7494,7 +7498,7 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8520,7 +8524,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9313,7 +9317,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9973,7 +9977,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10332,7 +10336,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11256,7 +11260,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8644" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1021CFF3-70BB-4A73-93FA-98F4C9F7F063}"/>
+  <xr:revisionPtr revIDLastSave="8700" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CFAF310-3A79-46B5-955A-A2E4B3ACE710}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="3330" yWindow="3330" windowWidth="28800" windowHeight="15345" firstSheet="1" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="550">
   <si>
     <t>ROUND</t>
   </si>
@@ -1665,6 +1665,36 @@
   </si>
   <si>
     <t>6-4 1-1 RETIRED</t>
+  </si>
+  <si>
+    <t>Oksana Selekhmeteva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Jessica Pegula (USA)</t>
+  </si>
+  <si>
+    <t>3-6 6-4 6-2</t>
+  </si>
+  <si>
+    <t>7-6(10) 4-6 6-2</t>
+  </si>
+  <si>
+    <t>6-3 6-7(3) 6-3</t>
+  </si>
+  <si>
+    <t>7-5 7-6(6)</t>
+  </si>
+  <si>
+    <t>BERLIN TENNIS OPEN</t>
+  </si>
+  <si>
+    <t>Wang Xinyu (CHINA)</t>
+  </si>
+  <si>
+    <t>EMMA RADUCANU (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>McCartney Kessler (USA)</t>
   </si>
 </sst>
 </file>
@@ -1753,7 +1783,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1762,6 +1792,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2249,7 +2280,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2369,7 +2400,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2899,7 +2930,7 @@
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.54545454545454541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4380,10 +4411,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4768,8 +4795,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6213,18 +6240,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E22" activeCellId="4" sqref="E3 E6 E9 E13 E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6349,6 +6376,168 @@
       </c>
       <c r="F9" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>540</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>451</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>541</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>506</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>537</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>547</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>549</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>548</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6365,7 +6554,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6634,20 +6823,20 @@
         <v>2025</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6656,23 +6845,23 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.52569169960474305</v>
+        <v>0.53256704980842917</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6681,23 +6870,23 @@
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>11.333333333333334</v>
+        <v>11.583333333333334</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>21.083333333333332</v>
+        <v>21.75</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>10</v>
+        <v>10.166666666666666</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.52569169960474305</v>
+        <v>0.53256704980842917</v>
       </c>
     </row>
   </sheetData>
@@ -11260,7 +11449,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Markéta Vondroušová.xlsx
+++ b/Tennis/WTA Tour/Markéta Vondroušová.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8700" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CFAF310-3A79-46B5-955A-A2E4B3ACE710}"/>
+  <xr:revisionPtr revIDLastSave="8760" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC2F0F0-AB14-491D-B759-DD1B4016B0B8}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3330" yWindow="3330" windowWidth="28800" windowHeight="15345" firstSheet="1" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="17085" yWindow="14610" windowWidth="17280" windowHeight="6960" firstSheet="1" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="20" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="556">
   <si>
     <t>ROUND</t>
   </si>
@@ -338,9 +338,6 @@
     <t>Stefanie Vögele (SWITZERLAND)</t>
   </si>
   <si>
-    <t>Daria Kasatkina (RUSSIA)</t>
-  </si>
-  <si>
     <t>6-2 7-5</t>
   </si>
   <si>
@@ -1695,6 +1692,27 @@
   </si>
   <si>
     <t>McCartney Kessler (USA)</t>
+  </si>
+  <si>
+    <t>6-4 5-7 6-2</t>
+  </si>
+  <si>
+    <t>7-6(7) 6-2</t>
+  </si>
+  <si>
+    <t>2-6 6-3 6-2</t>
+  </si>
+  <si>
+    <t>3-6 6-1 6-2</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Jaqueline Cristian (ROMANIA)</t>
+  </si>
+  <si>
+    <t>Alex Eala (PHILIPPINES)</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2298,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2400,7 +2418,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2930,7 +2948,7 @@
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.54545454545454541</c:v>
+                  <c:v>0.58823529411764708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4749,7 +4767,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -4758,7 +4776,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -4772,7 +4790,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
@@ -4831,7 +4849,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -4840,13 +4858,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4854,13 +4872,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4868,13 +4886,13 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4888,13 +4906,13 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4908,7 +4926,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4916,18 +4934,18 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -4936,7 +4954,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -4950,7 +4968,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -4964,13 +4982,13 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
+        <v>476</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
         <v>477</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4978,18 +4996,18 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -5009,7 +5027,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -5018,7 +5036,7 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -5038,7 +5056,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5060,13 +5078,13 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5080,13 +5098,13 @@
         <v>37</v>
       </c>
       <c r="D22" t="s">
+        <v>481</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
         <v>482</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5094,13 +5112,13 @@
         <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5122,24 +5140,24 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -5150,7 +5168,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -5161,7 +5179,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
@@ -5170,7 +5188,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -5184,13 +5202,13 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5198,7 +5216,7 @@
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -5212,18 +5230,18 @@
         <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -5232,13 +5250,13 @@
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5246,13 +5264,13 @@
         <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5260,7 +5278,7 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
@@ -5274,7 +5292,7 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
@@ -5294,13 +5312,13 @@
         <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5308,7 +5326,7 @@
         <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>17</v>
@@ -5319,7 +5337,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
@@ -5328,13 +5346,13 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -5342,13 +5360,13 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5356,13 +5374,13 @@
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5376,13 +5394,13 @@
         <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5390,7 +5408,7 @@
         <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
@@ -5404,7 +5422,7 @@
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>16</v>
@@ -5424,7 +5442,7 @@
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5432,13 +5450,13 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -5446,13 +5464,13 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -5460,18 +5478,18 @@
         <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B55" t="s">
         <v>25</v>
@@ -5480,13 +5498,13 @@
         <v>75</v>
       </c>
       <c r="D55" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -5494,13 +5512,13 @@
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -5508,7 +5526,7 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>17</v>
@@ -5519,7 +5537,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B59" t="s">
         <v>25</v>
@@ -5528,7 +5546,7 @@
         <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
@@ -5542,13 +5560,13 @@
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5556,7 +5574,7 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
@@ -5570,13 +5588,13 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -5590,7 +5608,7 @@
         <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
@@ -5604,7 +5622,7 @@
         <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
@@ -5618,7 +5636,7 @@
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>16</v>
@@ -5632,13 +5650,13 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -5646,7 +5664,7 @@
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>17</v>
@@ -5657,7 +5675,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B70" t="s">
         <v>25</v>
@@ -5672,35 +5690,35 @@
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B72" t="s">
         <v>25</v>
       </c>
       <c r="C72" t="s">
+        <v>509</v>
+      </c>
+      <c r="D72" t="s">
+        <v>346</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s">
         <v>510</v>
-      </c>
-      <c r="D72" t="s">
-        <v>347</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D73" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>17</v>
@@ -5711,27 +5729,27 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D74" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B76" t="s">
         <v>25</v>
       </c>
       <c r="D76" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>16</v>
@@ -5742,13 +5760,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -5810,7 +5828,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -5821,7 +5839,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -5830,13 +5848,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5844,7 +5862,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
@@ -5855,7 +5873,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -5864,13 +5882,13 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5878,7 +5896,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
@@ -5892,18 +5910,18 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -5912,13 +5930,13 @@
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5926,18 +5944,18 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F12" t="s">
         <v>390</v>
-      </c>
-      <c r="F12" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -5946,7 +5964,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -5960,13 +5978,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5974,13 +5992,13 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5988,18 +6006,18 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -6022,7 +6040,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
@@ -6033,7 +6051,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -6042,13 +6060,13 @@
         <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6056,18 +6074,18 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -6076,13 +6094,13 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6096,7 +6114,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6110,7 +6128,7 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -6124,13 +6142,13 @@
         <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6138,7 +6156,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -6152,13 +6170,13 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6166,18 +6184,18 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B34" t="s">
         <v>83</v>
@@ -6186,7 +6204,7 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
@@ -6200,13 +6218,13 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
+        <v>532</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
         <v>533</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6220,13 +6238,13 @@
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -6240,10 +6258,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" activeCellId="4" sqref="E3 E6 E9 E13 E22"/>
+      <selection activeCell="E30" activeCellId="8" sqref="E2 E5 E8 E11:E12 E15:E19 E21 E24 E27 E30:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6252,7 +6270,7 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6278,7 +6296,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -6287,13 +6305,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6301,18 +6319,18 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -6321,7 +6339,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -6335,7 +6353,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
@@ -6346,7 +6364,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -6355,7 +6373,7 @@
         <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
@@ -6369,7 +6387,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
@@ -6389,7 +6407,7 @@
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -6403,13 +6421,13 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6417,18 +6435,18 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
+        <v>540</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
         <v>541</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
@@ -6437,13 +6455,13 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6452,13 +6470,13 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6482,7 +6500,7 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
@@ -6497,13 +6515,13 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6517,13 +6535,13 @@
         <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6531,13 +6549,163 @@
         <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>555</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>484</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>554</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>539</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>548</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F34" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -6823,20 +6991,20 @@
         <v>2025</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.58823529411764708</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6845,7 +7013,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -6853,24 +7021,24 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F14" s="3">
         <f>(D14-E14)/D14</f>
-        <v>0.53256704980842917</v>
+        <v>0.53558052434456926</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>11.583333333333334</v>
+        <v>11.833333333333334</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -6878,15 +7046,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>21.75</v>
+        <v>22.25</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>10.166666666666666</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="F15" s="3">
         <f>(D15-E15)/D15</f>
-        <v>0.53256704980842917</v>
+        <v>0.53558052434456926</v>
       </c>
     </row>
   </sheetData>
@@ -6948,7 +7116,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -6957,7 +7125,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -6971,7 +7139,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -6985,7 +7153,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -6999,13 +7167,13 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7024,7 +7192,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -7033,13 +7201,13 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7053,7 +7221,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7061,18 +7229,18 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -7081,7 +7249,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -7095,13 +7263,13 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7109,7 +7277,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -7123,13 +7291,13 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7137,7 +7305,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -7148,7 +7316,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -7157,7 +7325,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
@@ -7171,7 +7339,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -7199,7 +7367,7 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -7210,7 +7378,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -7219,13 +7387,13 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -7233,7 +7401,7 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
@@ -7244,7 +7412,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26" t="s">
         <v>90</v>
@@ -7253,7 +7421,7 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
@@ -7267,7 +7435,7 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -7281,18 +7449,18 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -7301,13 +7469,13 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -7315,13 +7483,13 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7329,7 +7497,7 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
@@ -7411,7 +7579,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -7437,7 +7605,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7451,7 +7619,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
@@ -7476,7 +7644,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -7485,18 +7653,18 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -7505,7 +7673,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -7519,13 +7687,13 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7533,7 +7701,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -7547,7 +7715,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -7561,7 +7729,7 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
@@ -7572,7 +7740,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -7581,7 +7749,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -7595,7 +7763,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>17</v>
@@ -7606,7 +7774,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -7615,7 +7783,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -7629,7 +7797,7 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
@@ -7640,7 +7808,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -7655,7 +7823,7 @@
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -7663,13 +7831,13 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -7722,7 +7890,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -7731,7 +7899,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -7745,7 +7913,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -7759,13 +7927,13 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>223</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7798,7 +7966,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -7807,7 +7975,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
@@ -7835,7 +8003,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -7849,13 +8017,13 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7863,7 +8031,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -7874,7 +8042,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -7883,13 +8051,13 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7911,13 +8079,13 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7925,7 +8093,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -7945,12 +8113,12 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -7959,7 +8127,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -7979,7 +8147,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7987,7 +8155,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
@@ -7998,7 +8166,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -8007,7 +8175,7 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
@@ -8027,7 +8195,7 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8035,7 +8203,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
@@ -8049,7 +8217,7 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -8074,7 +8242,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -8083,7 +8251,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -8103,7 +8271,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8111,13 +8279,13 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8125,7 +8293,7 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
@@ -8136,7 +8304,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -8145,13 +8313,13 @@
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8159,13 +8327,13 @@
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -8173,7 +8341,7 @@
         <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
@@ -8187,13 +8355,13 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -8201,7 +8369,7 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
@@ -8215,13 +8383,13 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -8229,13 +8397,13 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8243,18 +8411,18 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
@@ -8266,12 +8434,12 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>17</v>
@@ -8282,7 +8450,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
@@ -8291,13 +8459,13 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -8305,18 +8473,18 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
@@ -8325,7 +8493,7 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
@@ -8367,13 +8535,13 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -8381,13 +8549,13 @@
         <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -8429,7 +8597,7 @@
         <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
@@ -8443,13 +8611,13 @@
         <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -8457,18 +8625,18 @@
         <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>553</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s">
         <v>83</v>
@@ -8477,7 +8645,7 @@
         <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>16</v>
@@ -8491,7 +8659,7 @@
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
@@ -8505,13 +8673,13 @@
         <v>34</v>
       </c>
       <c r="D64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -8519,18 +8687,18 @@
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B67" t="s">
         <v>83</v>
@@ -8539,7 +8707,7 @@
         <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>17</v>
@@ -8559,18 +8727,18 @@
         <v>37</v>
       </c>
       <c r="D69" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
@@ -8579,7 +8747,7 @@
         <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
@@ -8593,7 +8761,7 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>16</v>
@@ -8607,7 +8775,7 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>16</v>
@@ -8621,13 +8789,13 @@
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -8635,7 +8803,7 @@
         <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
@@ -8655,18 +8823,18 @@
         <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B79" t="s">
         <v>25</v>
@@ -8675,7 +8843,7 @@
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>16</v>
@@ -8695,7 +8863,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -8748,7 +8916,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -8757,18 +8925,18 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -8777,7 +8945,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -8791,7 +8959,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>17</v>
@@ -8811,7 +8979,7 @@
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
@@ -8825,18 +8993,18 @@
         <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -8845,7 +9013,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -8859,7 +9027,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -8873,7 +9041,7 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -8887,7 +9055,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>17</v>
@@ -8898,7 +9066,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -8907,18 +9075,18 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -8927,7 +9095,7 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -8941,7 +9109,7 @@
         <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
@@ -8955,7 +9123,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -8969,13 +9137,13 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8989,18 +9157,18 @@
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -9009,13 +9177,13 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -9023,18 +9191,18 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -9043,13 +9211,13 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -9057,13 +9225,13 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -9071,13 +9239,13 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9085,7 +9253,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -9099,13 +9267,13 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9119,18 +9287,18 @@
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s">
         <v>83</v>
@@ -9139,13 +9307,13 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9159,13 +9327,13 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -9190,7 +9358,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -9199,13 +9367,13 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -9213,18 +9381,18 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
@@ -9233,7 +9401,7 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
@@ -9247,7 +9415,7 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
@@ -9275,18 +9443,18 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -9295,7 +9463,7 @@
         <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>17</v>
@@ -9315,13 +9483,13 @@
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -9335,7 +9503,7 @@
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
@@ -9349,7 +9517,7 @@
         <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
@@ -9363,13 +9531,13 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -9377,18 +9545,18 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
         <v>25</v>
@@ -9403,7 +9571,7 @@
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -9411,7 +9579,7 @@
         <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
@@ -9425,13 +9593,13 @@
         <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -9564,7 +9732,7 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>17</v>
@@ -9575,7 +9743,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -9584,13 +9752,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9598,13 +9766,13 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9612,13 +9780,13 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9626,13 +9794,13 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9646,12 +9814,12 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -9660,7 +9828,7 @@
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -9674,7 +9842,7 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>553</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -9688,13 +9856,13 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9702,13 +9870,13 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9716,13 +9884,13 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9736,7 +9904,7 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -9750,13 +9918,13 @@
         <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9764,13 +9932,13 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9798,18 +9966,18 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -9820,7 +9988,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
@@ -9831,7 +9999,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -9854,7 +10022,7 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
@@ -9868,7 +10036,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -9882,7 +10050,7 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -9896,18 +10064,18 @@
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
@@ -9916,13 +10084,13 @@
         <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9930,13 +10098,13 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -9944,13 +10112,13 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>553</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9958,13 +10126,13 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9978,13 +10146,13 @@
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -9992,13 +10160,13 @@
         <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -10006,13 +10174,13 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -10020,13 +10188,13 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -10034,13 +10202,13 @@
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -10048,13 +10216,13 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10062,7 +10230,7 @@
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>17</v>
@@ -10073,7 +10241,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
         <v>83</v>
@@ -10082,7 +10250,7 @@
         <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
@@ -10096,13 +10264,13 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -10116,7 +10284,7 @@
         <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>17</v>
@@ -10201,7 +10369,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -10224,13 +10392,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -10238,13 +10406,13 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10258,18 +10426,18 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -10284,12 +10452,12 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -10298,13 +10466,13 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10312,18 +10480,18 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -10332,18 +10500,18 @@
         <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -10352,18 +10520,18 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -10372,13 +10540,13 @@
         <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10392,7 +10560,7 @@
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -10406,7 +10574,7 @@
         <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
@@ -10417,7 +10585,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -10426,13 +10594,13 @@
         <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -10440,7 +10608,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -10454,13 +10622,13 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -10468,7 +10636,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
@@ -10502,7 +10670,7 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
@@ -10525,7 +10693,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10560,7 +10728,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -10569,18 +10737,18 @@
         <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -10589,13 +10757,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -10603,13 +10771,13 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10623,7 +10791,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -10631,13 +10799,13 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -10651,13 +10819,13 @@
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -10665,13 +10833,13 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10679,7 +10847,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -10693,18 +10861,18 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -10713,7 +10881,7 @@
         <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -10727,13 +10895,13 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10747,7 +10915,7 @@
         <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -10761,13 +10929,13 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10775,18 +10943,18 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -10801,7 +10969,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -10809,18 +10977,18 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -10829,18 +10997,18 @@
         <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -10855,7 +11023,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -10869,13 +11037,13 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -10883,7 +11051,7 @@
         <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -10897,7 +11065,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -10911,18 +11079,18 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B33" t="s">
         <v>83</v>
@@ -10931,7 +11099,7 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
@@ -10942,7 +11110,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
         <v>83</v>
@@ -10951,13 +11119,13 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -10971,13 +11139,13 @@
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -10985,18 +11153,18 @@
         <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
@@ -11005,13 +11173,13 @@
         <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -11019,7 +11187,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
@@ -11033,13 +11201,13 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -11047,13 +11215,13 @@
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -11061,13 +11229,13 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -11075,18 +11243,18 @@
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -11095,7 +11263,7 @@
         <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>17</v>
@@ -11106,7 +11274,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -11115,7 +11283,7 @@
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>16</v>
@@ -11129,13 +11297,13 @@
         <v>14</v>
       </c>
       <c r="D50" t="s">
+        <v>415</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
         <v>416</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -11143,13 +11311,13 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -11163,7 +11331,7 @@
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
@@ -11177,18 +11345,18 @@
         <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>553</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B56" t="s">
         <v>25</v>
@@ -11197,7 +11365,7 @@
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
@@ -11211,7 +11379,7 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
@@ -11225,7 +11393,7 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
@@ -11239,18 +11407,18 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B61" t="s">
         <v>25</v>
@@ -11273,7 +11441,7 @@
         <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>16</v>
@@ -11287,7 +11455,7 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
@@ -11301,13 +11469,13 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -11315,18 +11483,18 @@
         <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E65" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F65" t="s">
         <v>390</v>
-      </c>
-      <c r="F65" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
@@ -11335,18 +11503,18 @@
         <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B69" t="s">
         <v>25</v>
@@ -11355,7 +11523,7 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>16</v>
@@ -11369,7 +11537,7 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
@@ -11383,13 +11551,13 @@
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -11397,7 +11565,7 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>17</v>
@@ -11408,13 +11576,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B74" t="s">
         <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>16</v>
@@ -11425,13 +11593,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -11484,7 +11652,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -11493,13 +11661,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11507,13 +11675,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11527,7 +11695,7 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -11541,13 +11709,13 @@
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -11555,18 +11723,18 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -11575,18 +11743,18 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -11595,13 +11763,13 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -11609,13 +11777,13 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -11623,13 +11791,13 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -11637,13 +11805,13 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11651,7 +11819,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
@@ -11665,7 +11833,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -11679,18 +11847,18 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F17" t="s">
         <v>390</v>
-      </c>
-      <c r="F17" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -11699,7 +11867,7 @@
         <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -11713,13 +11881,13 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11727,24 +11895,24 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -11755,18 +11923,18 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -11775,7 +11943,7 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>17</v>
@@ -11786,7 +11954,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -11795,7 +11963,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
@@ -11806,7 +11974,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -11815,7 +11983,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -11829,7 +11997,7 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
@@ -11843,13 +12011,13 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11857,13 +12025,13 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -11871,7 +12039,7 @@
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
@@ -11882,24 +12050,24 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -11908,13 +12076,13 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -11922,7 +12090,7 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
@@ -11936,13 +12104,13 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
